--- a/sriramModel-nelson-atypical-patientID_27-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_27-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.138287968975249</v>
+        <v>1.199919833261613</v>
       </c>
       <c r="C2">
-        <v>1.000640634180318</v>
+        <v>1.090591968297911</v>
       </c>
       <c r="D2">
-        <v>1.062986464732176</v>
+        <v>1.022228127159527</v>
       </c>
       <c r="E2">
-        <v>1.16619707535379</v>
+        <v>1.102324861351111</v>
       </c>
       <c r="F2">
-        <v>1.009886578191808</v>
+        <v>1.263933861064734</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.270023621315308</v>
+        <v>1.398174586653235</v>
       </c>
       <c r="C3">
-        <v>1.001268859212559</v>
+        <v>1.179746478054664</v>
       </c>
       <c r="D3">
-        <v>1.125676496661884</v>
+        <v>1.044267234771139</v>
       </c>
       <c r="E3">
-        <v>1.330853754552897</v>
+        <v>1.203750106651043</v>
       </c>
       <c r="F3">
-        <v>1.019652948174865</v>
+        <v>1.527388719107283</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.395345386668345</v>
+        <v>1.594876297296335</v>
       </c>
       <c r="C4">
-        <v>1.001883759042706</v>
+        <v>1.267513120138927</v>
       </c>
       <c r="D4">
-        <v>1.188072130298864</v>
+        <v>1.066117685439486</v>
       </c>
       <c r="E4">
-        <v>1.493987212441301</v>
+        <v>1.304312215022904</v>
       </c>
       <c r="F4">
-        <v>1.029301000634145</v>
+        <v>1.790397286711703</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.514403898700421</v>
+        <v>1.790123722621326</v>
       </c>
       <c r="C5">
-        <v>1.002484253620849</v>
+        <v>1.353936809480143</v>
       </c>
       <c r="D5">
-        <v>1.250175075231017</v>
+        <v>1.08777979497159</v>
       </c>
       <c r="E5">
-        <v>1.65560789848928</v>
+        <v>1.404044682545326</v>
       </c>
       <c r="F5">
-        <v>1.038832569716369</v>
+        <v>2.052988402689816</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.627361244067777</v>
+        <v>1.984004121585227</v>
       </c>
       <c r="C6">
-        <v>1.003069082853406</v>
+        <v>1.439058403572414</v>
       </c>
       <c r="D6">
-        <v>1.311986702495283</v>
+        <v>1.109253761669902</v>
       </c>
       <c r="E6">
-        <v>1.815719781959955</v>
+        <v>1.502978331697725</v>
       </c>
       <c r="F6">
-        <v>1.048249428776731</v>
+        <v>2.315187710526967</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.7343892782063</v>
+        <v>2.176594968540437</v>
       </c>
       <c r="C7">
-        <v>1.003636792027446</v>
+        <v>1.522915305593206</v>
       </c>
       <c r="D7">
-        <v>1.373508024221809</v>
+        <v>1.130539673420664</v>
       </c>
       <c r="E7">
-        <v>1.974320961580681</v>
+        <v>1.601141503809283</v>
       </c>
       <c r="F7">
-        <v>1.05755328905385</v>
+        <v>2.577017712678637</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.83566810737248</v>
+        <v>2.367965230501959</v>
       </c>
       <c r="C8">
-        <v>1.004185717794779</v>
+        <v>1.605541408741763</v>
       </c>
       <c r="D8">
-        <v>1.434739688712087</v>
+        <v>1.151637491721385</v>
       </c>
       <c r="E8">
-        <v>2.131404067363053</v>
+        <v>1.698560287161164</v>
       </c>
       <c r="F8">
-        <v>1.066745795681638</v>
+        <v>2.838498012450382</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.931384368510028</v>
+        <v>2.558176302692965</v>
       </c>
       <c r="C9">
-        <v>1.004713960295794</v>
+        <v>1.686967421253216</v>
       </c>
       <c r="D9">
-        <v>1.495681965593</v>
+        <v>1.172547042333666</v>
       </c>
       <c r="E9">
-        <v>2.286956549720121</v>
+        <v>1.795258653504347</v>
       </c>
       <c r="F9">
-        <v>1.075828524341966</v>
+        <v>3.099645530817786</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.021729456822423</v>
+        <v>2.74728293544903</v>
       </c>
       <c r="C10">
-        <v>1.005219366080638</v>
+        <v>1.767221189312892</v>
       </c>
       <c r="D10">
-        <v>1.556334727954845</v>
+        <v>1.193268020958878</v>
       </c>
       <c r="E10">
-        <v>2.440961002885729</v>
+        <v>1.891258580247885</v>
       </c>
       <c r="F10">
-        <v>1.084802977010052</v>
+        <v>3.360474527430895</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.106897857730601</v>
+        <v>2.935333889457931</v>
       </c>
       <c r="C11">
-        <v>1.005699508356206</v>
+        <v>1.846327843044449</v>
       </c>
       <c r="D11">
-        <v>1.616697434409942</v>
+        <v>1.213799984936483</v>
       </c>
       <c r="E11">
-        <v>2.593395381198718</v>
+        <v>1.986580136421522</v>
       </c>
       <c r="F11">
-        <v>1.093670576219921</v>
+        <v>3.620996577315048</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.187085613733187</v>
+        <v>3.122372512884546</v>
       </c>
       <c r="C12">
-        <v>1.006151664327819</v>
+        <v>1.924309961866646</v>
       </c>
       <c r="D12">
-        <v>1.676769111080773</v>
+        <v>1.234142365829394</v>
       </c>
       <c r="E12">
-        <v>2.744233183275817</v>
+        <v>2.081241577008384</v>
       </c>
       <c r="F12">
-        <v>1.102432658606837</v>
+        <v>3.881220502562951</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.262488954523857</v>
+        <v>3.308437132811533</v>
       </c>
       <c r="C13">
-        <v>1.006572787561871</v>
+        <v>2.001187656114776</v>
       </c>
       <c r="D13">
-        <v>1.736548330312051</v>
+        <v>1.254294418458631</v>
       </c>
       <c r="E13">
-        <v>2.893443653817261</v>
+        <v>2.175259408729878</v>
       </c>
       <c r="F13">
-        <v>1.111090467843056</v>
+        <v>4.141152239418925</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.333302898912466</v>
+        <v>3.493561412649032</v>
       </c>
       <c r="C14">
-        <v>1.006959485649756</v>
+        <v>2.076978659288876</v>
       </c>
       <c r="D14">
-        <v>1.796033189858123</v>
+        <v>1.274255226858279</v>
       </c>
       <c r="E14">
-        <v>3.040991959728801</v>
+        <v>2.268648421027474</v>
       </c>
       <c r="F14">
-        <v>1.119645146506562</v>
+        <v>4.400794639606896</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.399720039540549</v>
+        <v>3.677774665228065</v>
       </c>
       <c r="C15">
-        <v>1.007307994395447</v>
+        <v>2.15169842735052</v>
       </c>
       <c r="D15">
-        <v>1.855221287102881</v>
+        <v>1.294023704119435</v>
       </c>
       <c r="E15">
-        <v>3.186839251336833</v>
+        <v>2.361421671473789</v>
       </c>
       <c r="F15">
-        <v>1.128097725451544</v>
+        <v>4.660147206871031</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.461929689283747</v>
+        <v>3.861102046225486</v>
       </c>
       <c r="C16">
-        <v>1.0076141483878</v>
+        <v>2.225360328767347</v>
       </c>
       <c r="D16">
-        <v>1.914109672634544</v>
+        <v>1.313598579048517</v>
       </c>
       <c r="E16">
-        <v>3.330942702418362</v>
+        <v>2.453590550059214</v>
       </c>
       <c r="F16">
-        <v>1.136449115307536</v>
+        <v>4.919205768857524</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.520117125295661</v>
+        <v>4.043564645725739</v>
       </c>
       <c r="C17">
-        <v>1.007873351802584</v>
+        <v>2.297975653843538</v>
       </c>
       <c r="D17">
-        <v>1.972694823424353</v>
+        <v>1.332978389460096</v>
       </c>
       <c r="E17">
-        <v>3.473255536677881</v>
+        <v>2.545164708399939</v>
       </c>
       <c r="F17">
-        <v>1.144700090402097</v>
+        <v>5.177962082375373</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.574462889325915</v>
+        <v>4.225179531211033</v>
       </c>
       <c r="C18">
-        <v>1.008080543936444</v>
+        <v>2.369553584197097</v>
       </c>
       <c r="D18">
-        <v>2.030972599483665</v>
+        <v>1.352161466676283</v>
       </c>
       <c r="E18">
-        <v>3.613727026741106</v>
+        <v>2.636152065394278</v>
       </c>
       <c r="F18">
-        <v>1.152851280624664</v>
+        <v>5.436403368651617</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.625142233254467</v>
+        <v>4.405959750646189</v>
       </c>
       <c r="C19">
-        <v>1.008230170471071</v>
+        <v>2.440101213562715</v>
       </c>
       <c r="D19">
-        <v>2.088938198130693</v>
+        <v>1.371145921392478</v>
       </c>
       <c r="E19">
-        <v>3.75230245646123</v>
+        <v>2.726558698744121</v>
       </c>
       <c r="F19">
-        <v>1.160903149941668</v>
+        <v>5.694511774735727</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.672324731335017</v>
+        <v>4.585914271896374</v>
       </c>
       <c r="C20">
-        <v>1.008316157360355</v>
+        <v>2.509623587631084</v>
       </c>
       <c r="D20">
-        <v>2.146586097036113</v>
+        <v>1.389929628425125</v>
       </c>
       <c r="E20">
-        <v>3.888923044256981</v>
+        <v>2.816388755425675</v>
       </c>
       <c r="F20">
-        <v>1.168855978682702</v>
+        <v>5.952263757093665</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.716174011755497</v>
+        <v>4.765047845087005</v>
       </c>
       <c r="C21">
-        <v>1.008331880849292</v>
+        <v>2.578123715142985</v>
       </c>
       <c r="D21">
-        <v>2.203909985860891</v>
+        <v>1.408510211246289</v>
       </c>
       <c r="E21">
-        <v>4.023525825874833</v>
+        <v>2.905644369728434</v>
       </c>
       <c r="F21">
-        <v>1.176709849504178</v>
+        <v>6.209629383280967</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.756847566420278</v>
+        <v>4.943360792433174</v>
       </c>
       <c r="C22">
-        <v>1.008270140200275</v>
+        <v>2.645602539461351</v>
       </c>
       <c r="D22">
-        <v>2.260902691008538</v>
+        <v>1.426885028291567</v>
       </c>
       <c r="E22">
-        <v>4.15604350776416</v>
+        <v>2.994325471297971</v>
       </c>
       <c r="F22">
-        <v>1.184464612706044</v>
+        <v>6.466571547412421</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.794496637508312</v>
+        <v>5.120848729764417</v>
       </c>
       <c r="C23">
-        <v>1.00812313172727</v>
+        <v>2.712058886469445</v>
       </c>
       <c r="D23">
-        <v>2.317556083473057</v>
+        <v>1.445051148477458</v>
       </c>
       <c r="E23">
-        <v>4.286404279901967</v>
+        <v>3.082429626031556</v>
       </c>
       <c r="F23">
-        <v>1.192119873569474</v>
+        <v>6.723045095123138</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.829266182567313</v>
+        <v>5.297502213441819</v>
       </c>
       <c r="C24">
-        <v>1.00788242710066</v>
+        <v>2.777489407681594</v>
       </c>
       <c r="D24">
-        <v>2.373860966036175</v>
+        <v>1.463005333552242</v>
       </c>
       <c r="E24">
-        <v>4.414531607011019</v>
+        <v>3.169951857413748</v>
       </c>
       <c r="F24">
-        <v>1.199674953098157</v>
+        <v>6.978995853978181</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.861294904503835</v>
+        <v>5.473306301030896</v>
       </c>
       <c r="C25">
-        <v>1.007538958618127</v>
+        <v>2.841888514766764</v>
       </c>
       <c r="D25">
-        <v>2.429806944833019</v>
+        <v>1.480744014272211</v>
       </c>
       <c r="E25">
-        <v>4.540343986128781</v>
+        <v>3.256884358685112</v>
       </c>
       <c r="F25">
-        <v>1.207128858568382</v>
+        <v>7.234359565919696</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.890715328132772</v>
+        <v>5.648240015562869</v>
       </c>
       <c r="C26">
-        <v>1.007083010997536</v>
+        <v>2.905248294525189</v>
       </c>
       <c r="D26">
-        <v>2.48538228040626</v>
+        <v>1.498263270160551</v>
       </c>
       <c r="E26">
-        <v>4.663754676637969</v>
+        <v>3.343216194560465</v>
       </c>
       <c r="F26">
-        <v>1.214480252819141</v>
+        <v>7.489060719423495</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.917653913947458</v>
+        <v>5.822275704579348</v>
       </c>
       <c r="C27">
-        <v>1.006504221636465</v>
+        <v>2.967558400139252</v>
       </c>
       <c r="D27">
-        <v>2.540573703514215</v>
+        <v>1.515558801900373</v>
       </c>
       <c r="E27">
-        <v>4.784671409052974</v>
+        <v>3.428933011317279</v>
       </c>
       <c r="F27">
-        <v>1.221727395562032</v>
+        <v>7.743011280686567</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.942231203816176</v>
+        <v>5.995378283201661</v>
       </c>
       <c r="C28">
-        <v>1.005791590347318</v>
+        <v>3.028805920545952</v>
       </c>
       <c r="D28">
-        <v>2.595366185215499</v>
+        <v>1.532625898722513</v>
       </c>
       <c r="E28">
-        <v>4.902996080774604</v>
+        <v>3.514016595159514</v>
       </c>
       <c r="F28">
-        <v>1.22886811811223</v>
+        <v>7.996109395844598</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.964561992548356</v>
+        <v>6.167504347462696</v>
       </c>
       <c r="C29">
-        <v>1.004933505913034</v>
+        <v>3.088975229316548</v>
       </c>
       <c r="D29">
-        <v>2.649742668453213</v>
+        <v>1.54945940989262</v>
       </c>
       <c r="E29">
-        <v>5.01862445010627</v>
+        <v>3.598444415005987</v>
       </c>
       <c r="F29">
-        <v>1.235899746076301</v>
+        <v>8.248237892279567</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.984755517919688</v>
+        <v>6.338601142543687</v>
       </c>
       <c r="C30">
-        <v>1.003917784751214</v>
+        <v>3.14804781107269</v>
       </c>
       <c r="D30">
-        <v>2.703683759646998</v>
+        <v>1.56605370776145</v>
       </c>
       <c r="E30">
-        <v>5.131445844970576</v>
+        <v>3.682189168171307</v>
       </c>
       <c r="F30">
-        <v>1.242819049330219</v>
+        <v>8.499262435418867</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.002915663152856</v>
+        <v>6.508605370300441</v>
       </c>
       <c r="C31">
-        <v>1.002731728885964</v>
+        <v>3.206002061760923</v>
       </c>
       <c r="D31">
-        <v>2.757167331009313</v>
+        <v>1.582402662102742</v>
       </c>
       <c r="E31">
-        <v>5.241342904968543</v>
+        <v>3.765218166636324</v>
       </c>
       <c r="F31">
-        <v>1.24962217597712</v>
+        <v>8.74903030276289</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.01914116788285</v>
+        <v>6.677441820562831</v>
       </c>
       <c r="C32">
-        <v>1.0013622020578</v>
+        <v>3.262813059641412</v>
       </c>
       <c r="D32">
-        <v>2.810168036774872</v>
+        <v>1.598499590132051</v>
       </c>
       <c r="E32">
-        <v>5.348191390835572</v>
+        <v>3.847492662055136</v>
       </c>
       <c r="F32">
-        <v>1.256304543319042</v>
+        <v>8.997368638972771</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.033525843946409</v>
+        <v>6.845021811320133</v>
       </c>
       <c r="C33">
-        <v>0.9997957258122475</v>
+        <v>3.318452304759406</v>
       </c>
       <c r="D33">
-        <v>2.862656757730267</v>
+        <v>1.614337214886795</v>
       </c>
       <c r="E33">
-        <v>5.451860097821235</v>
+        <v>3.928967192540768</v>
       </c>
       <c r="F33">
-        <v>1.262860789315157</v>
+        <v>9.244082641917378</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.046158793730105</v>
+        <v>7.011241424242494</v>
       </c>
       <c r="C34">
-        <v>0.9980186066004089</v>
+        <v>3.372887424716358</v>
       </c>
       <c r="D34">
-        <v>2.914599829678145</v>
+        <v>1.629907621515926</v>
       </c>
       <c r="E34">
-        <v>5.552210914367819</v>
+        <v>4.009588775713238</v>
       </c>
       <c r="F34">
-        <v>1.269284613067921</v>
+        <v>9.488954041204153</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.057124627497904</v>
+        <v>7.175979526003441</v>
       </c>
       <c r="C35">
-        <v>0.9960170779556536</v>
+        <v>3.426081844027817</v>
       </c>
       <c r="D35">
-        <v>2.965958211285008</v>
+        <v>1.645202202763876</v>
       </c>
       <c r="E35">
-        <v>5.649099113413439</v>
+        <v>4.089295999707116</v>
       </c>
       <c r="F35">
-        <v>1.275568684628022</v>
+        <v>9.73173968560662</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.066503677691113</v>
+        <v>7.339095575178602</v>
       </c>
       <c r="C36">
-        <v>0.9937774691724226</v>
+        <v>3.477994414069913</v>
       </c>
       <c r="D36">
-        <v>3.016686453695916</v>
+        <v>1.660211627959211</v>
       </c>
       <c r="E36">
-        <v>5.742373939460516</v>
+        <v>4.168018177500121</v>
       </c>
       <c r="F36">
-        <v>1.281704498447341</v>
+        <v>9.972169645099859</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.074372209860028</v>
+        <v>7.50042722215291</v>
       </c>
       <c r="C37">
-        <v>0.9912863929746318</v>
+        <v>3.528579000947597</v>
       </c>
       <c r="D37">
-        <v>3.066731419284466</v>
+        <v>1.674925762408743</v>
       </c>
       <c r="E37">
-        <v>5.831879573682288</v>
+        <v>4.245674390068228</v>
       </c>
       <c r="F37">
-        <v>1.287682156939707</v>
+        <v>10.20994622983271</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.080802626312079</v>
+        <v>7.659787727240392</v>
       </c>
       <c r="C38">
-        <v>0.9885309531852593</v>
+        <v>3.577784029443313</v>
       </c>
       <c r="D38">
-        <v>3.116030739291669</v>
+        <v>1.689333619144812</v>
       </c>
       <c r="E38">
-        <v>5.917456565383197</v>
+        <v>4.322172442171669</v>
       </c>
       <c r="F38">
-        <v>1.293490291272455</v>
+        <v>10.4447433584113</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.0858636712163</v>
+        <v>7.816963246846099</v>
       </c>
       <c r="C39">
-        <v>0.9854989738252493</v>
+        <v>3.625551982396286</v>
       </c>
       <c r="D39">
-        <v>3.164511014502858</v>
+        <v>1.703423296949662</v>
       </c>
       <c r="E39">
-        <v>5.998944130759852</v>
+        <v>4.397407979258248</v>
       </c>
       <c r="F39">
-        <v>1.299115700279888</v>
+        <v>10.6762061083897</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.089620617367437</v>
+        <v>7.971710067077155</v>
       </c>
       <c r="C40">
-        <v>0.9821792278084465</v>
+        <v>3.67181885660291</v>
       </c>
       <c r="D40">
-        <v>3.212085743571375</v>
+        <v>1.717181921179711</v>
       </c>
       <c r="E40">
-        <v>6.07618282690897</v>
+        <v>4.471263537029465</v>
       </c>
       <c r="F40">
-        <v>1.304543151577903</v>
+        <v>10.90395086650462</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.092135449710252</v>
+        <v>8.123751905973108</v>
       </c>
       <c r="C41">
-        <v>0.9785616715328568</v>
+        <v>3.716513579048806</v>
       </c>
       <c r="D41">
-        <v>3.258652955797225</v>
+        <v>1.730595590607746</v>
       </c>
       <c r="E41">
-        <v>6.149018155325634</v>
+        <v>4.54360775796426</v>
       </c>
       <c r="F41">
-        <v>1.309755075922244</v>
+        <v>11.12756639330107</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.093467044408918</v>
+        <v>8.272777456965358</v>
       </c>
       <c r="C42">
-        <v>0.9746376730460183</v>
+        <v>3.759557391477234</v>
       </c>
       <c r="D42">
-        <v>3.304092907889821</v>
+        <v>1.743649293587526</v>
       </c>
       <c r="E42">
-        <v>6.217305015417163</v>
+        <v>4.614294939487933</v>
       </c>
       <c r="F42">
-        <v>1.314731246629527</v>
+        <v>11.34661582516581</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.093671339466818</v>
+        <v>8.418438416624401</v>
       </c>
       <c r="C43">
-        <v>0.9704002303851664</v>
+        <v>3.800863217470912</v>
       </c>
       <c r="D43">
-        <v>3.348265877596768</v>
+        <v>1.756326858471264</v>
       </c>
       <c r="E43">
-        <v>6.280912926593559</v>
+        <v>4.68316429642904</v>
       </c>
       <c r="F43">
-        <v>1.319448390240711</v>
+        <v>11.56063967976587</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.092801490841103</v>
+        <v>8.560348303143423</v>
       </c>
       <c r="C44">
-        <v>0.9658441604477689</v>
+        <v>3.840335034978297</v>
       </c>
       <c r="D44">
-        <v>3.391010602872116</v>
+        <v>1.768610894420674</v>
       </c>
       <c r="E44">
-        <v>6.339731735398475</v>
+        <v>4.750040709325221</v>
       </c>
       <c r="F44">
-        <v>1.323879749913816</v>
+        <v>11.76916014640412</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.090908027931832</v>
+        <v>8.698082456745912</v>
       </c>
       <c r="C45">
-        <v>0.9609662572825035</v>
+        <v>3.877867289334149</v>
       </c>
       <c r="D45">
-        <v>3.432144043335484</v>
+        <v>1.780482755238394</v>
       </c>
       <c r="E45">
-        <v>6.39367755227254</v>
+        <v>4.814735175568436</v>
       </c>
       <c r="F45">
-        <v>1.327994620497774</v>
+        <v>11.97168673372702</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.088039003581507</v>
+        <v>8.831179680195422</v>
       </c>
       <c r="C46">
-        <v>0.955765410308261</v>
+        <v>3.913344398893431</v>
       </c>
       <c r="D46">
-        <v>3.471463342298504</v>
+        <v>1.791922489928715</v>
       </c>
       <c r="E46">
-        <v>6.44269843716747</v>
+        <v>4.877046054497765</v>
       </c>
       <c r="F46">
-        <v>1.331757859801846</v>
+        <v>12.16772336196807</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.084240126865839</v>
+        <v>8.959145968912212</v>
       </c>
       <c r="C47">
-        <v>0.9502426818974042</v>
+        <v>3.946640430549141</v>
       </c>
       <c r="D47">
-        <v>3.508750559806654</v>
+        <v>1.802908816786865</v>
       </c>
       <c r="E47">
-        <v>6.486779278182445</v>
+        <v>4.936761183955495</v>
       </c>
       <c r="F47">
-        <v>1.335129401896692</v>
+        <v>12.35677676852879</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.079554893763415</v>
+        <v>9.08146085660093</v>
       </c>
       <c r="C48">
-        <v>0.9444013356833809</v>
+        <v>3.977619025649549</v>
       </c>
       <c r="D48">
-        <v>3.543781177158579</v>
+        <v>1.813419129181133</v>
       </c>
       <c r="E48">
-        <v>6.52594525442374</v>
+        <v>4.993660979441517</v>
       </c>
       <c r="F48">
-        <v>1.338063789909513</v>
+        <v>12.53836630333111</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.074024711068922</v>
+        <v>9.197587549787258</v>
       </c>
       <c r="C49">
-        <v>0.9382467974182912</v>
+        <v>4.006133736747228</v>
       </c>
       <c r="D49">
-        <v>3.576335626113896</v>
+        <v>1.823429527709371</v>
       </c>
       <c r="E49">
-        <v>6.560263388761882</v>
+        <v>5.047522480998705</v>
       </c>
       <c r="F49">
-        <v>1.340509831305877</v>
+        <v>12.71203474919429</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.067689018568031</v>
+        <v>9.306985376716403</v>
       </c>
       <c r="C50">
-        <v>0.931786583190253</v>
+        <v>4.032028932540844</v>
       </c>
       <c r="D50">
-        <v>3.60621305116836</v>
+        <v>1.832914871233428</v>
       </c>
       <c r="E50">
-        <v>6.589842088298804</v>
+        <v>5.098124323868201</v>
       </c>
       <c r="F50">
-        <v>1.342410434247399</v>
+        <v>12.87735987937417</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.060585392512616</v>
+        <v>9.40912602502584</v>
       </c>
       <c r="C51">
-        <v>0.9250301735819896</v>
+        <v>4.055141450337167</v>
       </c>
       <c r="D51">
-        <v>3.633245709483975</v>
+        <v>1.841848850722459</v>
       </c>
       <c r="E51">
-        <v>6.614828398906639</v>
+        <v>5.145252584697523</v>
       </c>
       <c r="F51">
-        <v>1.343702732235368</v>
+        <v>13.03396623649386</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.052750024525259</v>
+        <v>9.503513172078607</v>
       </c>
       <c r="C52">
-        <v>0.9179888801067499</v>
+        <v>4.07530321517772</v>
       </c>
       <c r="D52">
-        <v>3.657311481646689</v>
+        <v>1.850204211803888</v>
       </c>
       <c r="E52">
-        <v>6.635403568306062</v>
+        <v>5.188707335986296</v>
       </c>
       <c r="F52">
-        <v>1.344318701720286</v>
+        <v>13.18153664094913</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.243397831020682</v>
+        <v>9.589703796780409</v>
       </c>
       <c r="C53">
-        <v>0.9639028433264411</v>
+        <v>4.092345454168736</v>
       </c>
       <c r="D53">
-        <v>4.001302154139657</v>
+        <v>1.857952964159582</v>
       </c>
       <c r="E53">
-        <v>7.093866477288401</v>
+        <v>5.228309592818995</v>
       </c>
       <c r="F53">
-        <v>1.518174862167458</v>
+        <v>13.31982272545576</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.425598887079323</v>
+        <v>9.667330182755769</v>
       </c>
       <c r="C54">
-        <v>1.005756940106789</v>
+        <v>4.106103839462435</v>
       </c>
       <c r="D54">
-        <v>4.314479702354374</v>
+        <v>1.86506665494264</v>
       </c>
       <c r="E54">
-        <v>7.511922330959902</v>
+        <v>5.263908226670223</v>
       </c>
       <c r="F54">
-        <v>1.682058951391903</v>
+        <v>13.44865383662303</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.599714193396503</v>
+        <v>9.736120737556684</v>
       </c>
       <c r="C55">
-        <v>1.043726645767694</v>
+        <v>4.116425301228052</v>
       </c>
       <c r="D55">
-        <v>4.59734878725241</v>
+        <v>1.871516736201344</v>
       </c>
       <c r="E55">
-        <v>7.892063834256746</v>
+        <v>5.295386363521365</v>
       </c>
       <c r="F55">
-        <v>1.835341385202412</v>
+        <v>13.56794376755783</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.76608237652401</v>
+        <v>9.795917536430977</v>
       </c>
       <c r="C56">
-        <v>1.077994050572129</v>
+        <v>4.123176427403823</v>
       </c>
       <c r="D56">
-        <v>4.850916848179644</v>
+        <v>1.877275037373211</v>
       </c>
       <c r="E56">
-        <v>8.236844339321554</v>
+        <v>5.322666768599265</v>
       </c>
       <c r="F56">
-        <v>1.977409432485526</v>
+        <v>13.67769478578446</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.925022246535415</v>
+        <v>9.846688299103057</v>
       </c>
       <c r="C57">
-        <v>1.10874587204845</v>
+        <v>4.126252705916782</v>
       </c>
       <c r="D57">
-        <v>5.076606694688063</v>
+        <v>1.882314310862607</v>
       </c>
       <c r="E57">
-        <v>8.548820931821997</v>
+        <v>5.345715754545812</v>
       </c>
       <c r="F57">
-        <v>2.107714696787875</v>
+        <v>13.77799858352444</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.076834291654982</v>
+        <v>9.888531552282553</v>
       </c>
       <c r="C58">
-        <v>1.13617133277605</v>
+        <v>4.125587944774224</v>
       </c>
       <c r="D58">
-        <v>5.276152634938309</v>
+        <v>1.886608879548374</v>
       </c>
       <c r="E58">
-        <v>8.830508522771327</v>
+        <v>5.364545448346188</v>
       </c>
       <c r="F58">
-        <v>2.225822103170959</v>
+        <v>13.86903408083198</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.221802203248976</v>
+        <v>9.921673982437891</v>
       </c>
       <c r="C59">
-        <v>1.160460091721826</v>
+        <v>4.12116284992553</v>
       </c>
       <c r="D59">
-        <v>5.451493558355695</v>
+        <v>1.890135295666649</v>
       </c>
       <c r="E59">
-        <v>9.08433991391275</v>
+        <v>5.379213282229411</v>
       </c>
       <c r="F59">
-        <v>2.331457249563683</v>
+        <v>13.95106221749497</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.360194416439897</v>
+        <v>9.946459952190244</v>
       </c>
       <c r="C60">
-        <v>1.181800613270759</v>
+        <v>4.113011437277919</v>
       </c>
       <c r="D60">
-        <v>5.604673449139391</v>
+        <v>1.892873116467109</v>
       </c>
       <c r="E60">
-        <v>9.312639157215818</v>
+        <v>5.389820290830518</v>
       </c>
       <c r="F60">
-        <v>2.424542360168001</v>
+        <v>14.02441808074941</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.492265242990856</v>
+        <v>9.963334872670641</v>
       </c>
       <c r="C61">
-        <v>1.200378442227779</v>
+        <v>4.101224076074729</v>
       </c>
       <c r="D61">
-        <v>5.737757794079464</v>
+        <v>1.894805667604222</v>
       </c>
       <c r="E61">
-        <v>9.51760121729005</v>
+        <v>5.396507343055512</v>
       </c>
       <c r="F61">
-        <v>2.505217856034369</v>
+        <v>14.08950071613388</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.618256014957883</v>
+        <v>9.972823491533092</v>
       </c>
       <c r="C62">
-        <v>1.21637472916124</v>
+        <v>4.085946190681798</v>
       </c>
       <c r="D62">
-        <v>5.852766811026711</v>
+        <v>1.89592080121939</v>
       </c>
       <c r="E62">
-        <v>9.701279716463253</v>
+        <v>5.399449559932421</v>
       </c>
       <c r="F62">
-        <v>2.573843947571798</v>
+        <v>14.14676144006926</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.738396022478566</v>
+        <v>9.975506045842989</v>
       </c>
       <c r="C63">
-        <v>1.229965251034827</v>
+        <v>4.06737290684511</v>
       </c>
       <c r="D63">
-        <v>5.951626706052514</v>
+        <v>1.896211572004992</v>
       </c>
       <c r="E63">
-        <v>9.865582364509994</v>
+        <v>5.398849784122119</v>
       </c>
       <c r="F63">
-        <v>2.630982604364494</v>
+        <v>14.19669126588493</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.852903312576116</v>
+        <v>9.971994146538364</v>
       </c>
       <c r="C64">
-        <v>1.24131943157117</v>
+        <v>4.045739809549436</v>
       </c>
       <c r="D64">
-        <v>6.036137384405421</v>
+        <v>1.89567679425908</v>
       </c>
       <c r="E64">
-        <v>10.01226959908419</v>
+        <v>5.394931645299267</v>
       </c>
       <c r="F64">
-        <v>2.677362957513464</v>
+        <v>14.23980814992658</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.961985457894656</v>
+        <v>9.962908482860653</v>
       </c>
       <c r="C65">
-        <v>1.250599527892096</v>
+        <v>4.021311362035846</v>
       </c>
       <c r="D65">
-        <v>6.107954588168042</v>
+        <v>1.89432147146351</v>
       </c>
       <c r="E65">
-        <v>10.14295647867284</v>
+        <v>5.387932440591926</v>
       </c>
       <c r="F65">
-        <v>2.71383610238405</v>
+        <v>14.27664460375223</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.065840367454535</v>
+        <v>9.948859596852142</v>
       </c>
       <c r="C66">
-        <v>1.257960161420059</v>
+        <v>3.994368536589597</v>
       </c>
       <c r="D66">
-        <v>6.168581740062873</v>
+        <v>1.892156999560963</v>
       </c>
       <c r="E66">
-        <v>10.259119942979</v>
+        <v>5.378096398097851</v>
       </c>
       <c r="F66">
-        <v>2.741326225957398</v>
+        <v>14.30773626275058</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.164657033658037</v>
+        <v>9.930432720425483</v>
       </c>
       <c r="C67">
-        <v>1.263548050150741</v>
+        <v>3.965196942325355</v>
       </c>
       <c r="D67">
-        <v>6.219370106883464</v>
+        <v>1.889201137601279</v>
       </c>
       <c r="E67">
-        <v>10.36210574234467</v>
+        <v>5.365668661100472</v>
       </c>
       <c r="F67">
-        <v>2.760784085324306</v>
+        <v>14.33361178442476</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.258616081744176</v>
+        <v>9.908176647006833</v>
       </c>
       <c r="C68">
-        <v>1.267501790441887</v>
+        <v>3.934076719942508</v>
       </c>
       <c r="D68">
-        <v>6.261524499477543</v>
+        <v>1.885477752044731</v>
       </c>
       <c r="E68">
-        <v>10.45313614801172</v>
+        <v>5.350890173430082</v>
       </c>
       <c r="F68">
-        <v>2.773147505339122</v>
+        <v>14.35478420069498</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.34789018182848</v>
+        <v>9.882596510254174</v>
       </c>
       <c r="C69">
-        <v>1.26995179740704</v>
+        <v>3.901274652515083</v>
       </c>
       <c r="D69">
-        <v>6.296112273930614</v>
+        <v>1.881016331515033</v>
       </c>
       <c r="E69">
-        <v>10.53331923233586</v>
+        <v>5.3339935273674</v>
       </c>
       <c r="F69">
-        <v>2.779311139819406</v>
+        <v>14.37174402226857</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.432644561319203</v>
+        <v>9.854150094445981</v>
       </c>
       <c r="C70">
-        <v>1.271020266000418</v>
+        <v>3.867038815317418</v>
       </c>
       <c r="D70">
-        <v>6.324074328558826</v>
+        <v>1.875851295736876</v>
       </c>
       <c r="E70">
-        <v>10.60365810094816</v>
+        <v>5.315199870506551</v>
       </c>
       <c r="F70">
-        <v>2.780105784086711</v>
+        <v>14.38495395426698</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.51303749774933</v>
+        <v>9.823246691236728</v>
       </c>
       <c r="C71">
-        <v>1.270821502171286</v>
+        <v>3.831595349717504</v>
       </c>
       <c r="D71">
-        <v>6.346236949738486</v>
+        <v>1.870021137623474</v>
       </c>
       <c r="E71">
-        <v>10.66505960585649</v>
+        <v>5.29471669776322</v>
       </c>
       <c r="F71">
-        <v>2.776286412147008</v>
+        <v>14.39484521963265</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.589220754895861</v>
+        <v>9.790248221920837</v>
       </c>
       <c r="C72">
-        <v>1.269462139679757</v>
+        <v>3.795147152579874</v>
       </c>
       <c r="D72">
-        <v>6.36332369152535</v>
+        <v>1.863567486880002</v>
       </c>
       <c r="E72">
-        <v>10.71834289278776</v>
+        <v>5.272736534881409</v>
       </c>
       <c r="F72">
-        <v>2.768527296386616</v>
+        <v>14.40181524665462</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.661339927867166</v>
+        <v>9.75547169531329</v>
       </c>
       <c r="C73">
-        <v>1.267041374033793</v>
+        <v>3.757873977089209</v>
       </c>
       <c r="D73">
-        <v>6.375966846291212</v>
+        <v>1.856534144845029</v>
       </c>
       <c r="E73">
-        <v>10.76424757528832</v>
+        <v>5.249436280186543</v>
       </c>
       <c r="F73">
-        <v>2.757422360181619</v>
+        <v>14.40622666660204</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.729534933313613</v>
+        <v>9.719192596242346</v>
       </c>
       <c r="C74">
-        <v>1.263651275873375</v>
+        <v>3.71993342072917</v>
       </c>
       <c r="D74">
-        <v>6.384718228409311</v>
+        <v>1.848966090948631</v>
       </c>
       <c r="E74">
-        <v>10.80344127094116</v>
+        <v>5.224977132725144</v>
       </c>
       <c r="F74">
-        <v>2.743489073454268</v>
+        <v>14.40840733772348</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.793940132013915</v>
+        <v>9.681648787481059</v>
       </c>
       <c r="C75">
-        <v>1.259377170025679</v>
+        <v>3.681462585997365</v>
       </c>
       <c r="D75">
-        <v>6.390059003301369</v>
+        <v>1.840908582901203</v>
       </c>
       <c r="E75">
-        <v>10.83652656861122</v>
+        <v>5.19950494950637</v>
       </c>
       <c r="F75">
-        <v>2.72717447916364</v>
+        <v>14.40865120509808</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.854684977874761</v>
+        <v>9.643044534296855</v>
       </c>
       <c r="C76">
-        <v>1.254298021807033</v>
+        <v>3.642580008249112</v>
       </c>
       <c r="D76">
-        <v>6.392408538777996</v>
+        <v>1.832406334029499</v>
       </c>
       <c r="E76">
-        <v>10.86404746496648</v>
+        <v>5.173150901825596</v>
       </c>
       <c r="F76">
-        <v>2.70886227403637</v>
+        <v>14.40721978357297</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.911893868335317</v>
+        <v>9.603554493395626</v>
       </c>
       <c r="C77">
-        <v>1.248486812575963</v>
+        <v>3.603387693334331</v>
       </c>
       <c r="D77">
-        <v>6.392132300020752</v>
+        <v>1.823502883796583</v>
       </c>
       <c r="E77">
-        <v>10.88649520437549</v>
+        <v>5.146032357829128</v>
       </c>
       <c r="F77">
-        <v>2.688880181866058</v>
+        <v>14.40434411813009</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.965686614620688</v>
+        <v>9.563327500408448</v>
       </c>
       <c r="C78">
-        <v>1.242010907470237</v>
+        <v>3.563973129761262</v>
       </c>
       <c r="D78">
-        <v>6.389548891202002</v>
+        <v>1.814240012683458</v>
       </c>
       <c r="E78">
-        <v>10.90431359850339</v>
+        <v>5.11825387918616</v>
       </c>
       <c r="F78">
-        <v>2.667507133432046</v>
+        <v>14.40022705230676</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.016178703506908</v>
+        <v>9.522490057752934</v>
       </c>
       <c r="C79">
-        <v>1.234932428439341</v>
+        <v>3.524411176105442</v>
       </c>
       <c r="D79">
-        <v>6.384936215862409</v>
+        <v>1.804657344850336</v>
       </c>
       <c r="E79">
-        <v>10.91790381151345</v>
+        <v>5.089908282990491</v>
       </c>
       <c r="F79">
-        <v>2.644979984160345</v>
+        <v>14.39504565147048</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6.063481434378355</v>
+        <v>9.481149464609825</v>
       </c>
       <c r="C80">
-        <v>1.227308621337709</v>
+        <v>3.484765788882117</v>
       </c>
       <c r="D80">
-        <v>6.37853684154907</v>
+        <v>1.794792065132839</v>
       </c>
       <c r="E80">
-        <v>10.92762870748074</v>
+        <v>5.061077705485808</v>
       </c>
       <c r="F80">
-        <v>2.621499556615941</v>
+        <v>14.38895368441747</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.107702261431246</v>
+        <v>9.439396588403397</v>
       </c>
       <c r="C81">
-        <v>1.219192205667934</v>
+        <v>3.445091560050015</v>
       </c>
       <c r="D81">
-        <v>6.370562675619887</v>
+        <v>1.78467875819079</v>
       </c>
       <c r="E81">
-        <v>10.93381672537475</v>
+        <v>5.031834657144223</v>
       </c>
       <c r="F81">
-        <v>2.597235979153397</v>
+        <v>14.38208407780509</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.148944913930487</v>
+        <v>9.397308300985181</v>
       </c>
       <c r="C82">
-        <v>1.210631705480159</v>
+        <v>3.405435080610104</v>
       </c>
       <c r="D82">
-        <v>6.361199033318334</v>
+        <v>1.774349335265767</v>
       </c>
       <c r="E82">
-        <v>10.9367653627101</v>
+        <v>5.002243031232728</v>
       </c>
       <c r="F82">
-        <v>2.572333350629645</v>
+        <v>14.37455126681739</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.187309559627825</v>
+        <v>9.354949601330871</v>
       </c>
       <c r="C83">
-        <v>1.201671763923562</v>
+        <v>3.365836117119764</v>
       </c>
       <c r="D83">
-        <v>6.350608155522403</v>
+        <v>1.763833036227521</v>
       </c>
       <c r="E83">
-        <v>10.93674435234659</v>
+        <v>4.972359042711108</v>
       </c>
       <c r="F83">
-        <v>2.54691378592027</v>
+        <v>14.36645347314678</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.22289311785486</v>
+        <v>9.312375439599743</v>
       </c>
       <c r="C84">
-        <v>1.192353441268463</v>
+        <v>3.326328628197324</v>
       </c>
       <c r="D84">
-        <v>6.3389322718461</v>
+        <v>1.753156497995881</v>
       </c>
       <c r="E84">
-        <v>10.93399849694302</v>
+        <v>4.942232089216832</v>
       </c>
       <c r="F84">
-        <v>2.521080833061359</v>
+        <v>14.35787473636158</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.255788858896385</v>
+        <v>9.26963229184036</v>
       </c>
       <c r="C85">
-        <v>1.182714203450228</v>
+        <v>3.286941641149463</v>
       </c>
       <c r="D85">
-        <v>6.326296200101067</v>
+        <v>1.742343868426692</v>
       </c>
       <c r="E85">
-        <v>10.9287495309047</v>
+        <v>4.911905534216096</v>
       </c>
       <c r="F85">
-        <v>2.494922263528625</v>
+        <v>14.34888676899525</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6.216630292467837</v>
+        <v>9.226759468829165</v>
       </c>
       <c r="C86">
-        <v>1.166943545148015</v>
+        <v>3.247699991365133</v>
       </c>
       <c r="D86">
-        <v>6.305185178104316</v>
+        <v>1.731416939048235</v>
       </c>
       <c r="E86">
-        <v>10.89075405071711</v>
+        <v>4.881417424324281</v>
       </c>
       <c r="F86">
-        <v>2.465709084138157</v>
+        <v>14.33955064388975</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6.177385919851298</v>
+        <v>9.183790242193092</v>
       </c>
       <c r="C87">
-        <v>1.151319655560368</v>
+        <v>3.208624955135976</v>
       </c>
       <c r="D87">
-        <v>6.284044263676276</v>
+        <v>1.720395308482068</v>
       </c>
       <c r="E87">
-        <v>10.85260627640445</v>
+        <v>4.850801129308386</v>
       </c>
       <c r="F87">
-        <v>2.436669324017267</v>
+        <v>14.32991827679618</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.138063299904875</v>
+        <v>9.14075279862228</v>
       </c>
       <c r="C88">
-        <v>1.135844189974492</v>
+        <v>3.16973478682295</v>
       </c>
       <c r="D88">
-        <v>6.262882008260704</v>
+        <v>1.709296564158467</v>
       </c>
       <c r="E88">
-        <v>10.81432313733126</v>
+        <v>4.820085915133938</v>
       </c>
       <c r="F88">
-        <v>2.407808891985057</v>
+        <v>14.3200337968116</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.098670907789848</v>
+        <v>9.097671043204484</v>
       </c>
       <c r="C89">
-        <v>1.120518594279177</v>
+        <v>3.131045162061089</v>
       </c>
       <c r="D89">
-        <v>6.241705982432557</v>
+        <v>1.698136425327238</v>
       </c>
       <c r="E89">
-        <v>10.7759201296535</v>
+        <v>4.789297450591053</v>
       </c>
       <c r="F89">
-        <v>2.379132724333223</v>
+        <v>14.30993463508348</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.059216933974743</v>
+        <v>9.054565274593108</v>
       </c>
       <c r="C90">
-        <v>1.105344090056274</v>
+        <v>3.092569572293754</v>
       </c>
       <c r="D90">
-        <v>6.220522826440665</v>
+        <v>1.68692891044599</v>
       </c>
       <c r="E90">
-        <v>10.73741133592215</v>
+        <v>4.758458253915084</v>
       </c>
       <c r="F90">
-        <v>2.350645056613208</v>
+        <v>14.29965254326909</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.019709304697145</v>
+        <v>9.011452751965384</v>
       </c>
       <c r="C91">
-        <v>1.090321694829795</v>
+        <v>3.054319659601878</v>
       </c>
       <c r="D91">
-        <v>6.1993383933569</v>
+        <v>1.675686506063909</v>
       </c>
       <c r="E91">
-        <v>10.69880957879605</v>
+        <v>4.727588087619417</v>
       </c>
       <c r="F91">
-        <v>2.322349572940933</v>
+        <v>14.2892144555032</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.980155724693309</v>
+        <v>8.96834817210839</v>
       </c>
       <c r="C92">
-        <v>1.075452234476862</v>
+        <v>3.016305478564998</v>
       </c>
       <c r="D92">
-        <v>6.1781578922235</v>
+        <v>1.664420319649226</v>
       </c>
       <c r="E92">
-        <v>10.66012665054843</v>
+        <v>4.696704304915048</v>
       </c>
       <c r="F92">
-        <v>2.294249445356485</v>
+        <v>14.27864321452281</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.940563703171927</v>
+        <v>8.925264069465378</v>
       </c>
       <c r="C93">
-        <v>1.060736358579458</v>
+        <v>2.978535718142334</v>
       </c>
       <c r="D93">
-        <v>6.15698596188031</v>
+        <v>1.653140249581605</v>
       </c>
       <c r="E93">
-        <v>10.62137337154703</v>
+        <v>4.665822153718902</v>
       </c>
       <c r="F93">
-        <v>2.266347420618746</v>
+        <v>14.26795822898894</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.900940556753647</v>
+        <v>8.882211152590017</v>
       </c>
       <c r="C94">
-        <v>1.046174557437068</v>
+        <v>2.941017898228134</v>
       </c>
       <c r="D94">
-        <v>6.135826695437535</v>
+        <v>1.641855097991697</v>
       </c>
       <c r="E94">
-        <v>10.58255962614048</v>
+        <v>4.634955042402011</v>
       </c>
       <c r="F94">
-        <v>2.238645880504545</v>
+        <v>14.25717596861657</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.861293399141926</v>
+        <v>8.839198586703407</v>
       </c>
       <c r="C95">
-        <v>1.031767175738999</v>
+        <v>2.903758541214676</v>
       </c>
       <c r="D95">
-        <v>6.114683728363778</v>
+        <v>1.630572668404967</v>
       </c>
       <c r="E95">
-        <v>10.54369447915852</v>
+        <v>4.604114771851219</v>
       </c>
       <c r="F95">
-        <v>2.211146897788181</v>
+        <v>14.24631043047905</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.821629145290281</v>
+        <v>8.796234231043027</v>
       </c>
       <c r="C96">
-        <v>1.017514424779938</v>
+        <v>2.866763314839168</v>
       </c>
       <c r="D96">
-        <v>6.093560311824284</v>
+        <v>1.619299879455318</v>
       </c>
       <c r="E96">
-        <v>10.50478627299981</v>
+        <v>4.573311737478646</v>
       </c>
       <c r="F96">
-        <v>2.183852283317333</v>
+        <v>14.23537352700347</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.781954506274183</v>
+        <v>8.753324837852237</v>
       </c>
       <c r="C97">
-        <v>1.00341639305905</v>
+        <v>2.830037151223321</v>
       </c>
       <c r="D97">
-        <v>6.072459353225922</v>
+        <v>1.608042862160584</v>
       </c>
       <c r="E97">
-        <v>10.46584269988088</v>
+        <v>4.542555107778319</v>
       </c>
       <c r="F97">
-        <v>2.156763619438283</v>
+        <v>14.22437540466132</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5.742276012168834</v>
+        <v>8.71047622171997</v>
       </c>
       <c r="C98">
-        <v>0.9894730542104964</v>
+        <v>2.793584345146296</v>
       </c>
       <c r="D98">
-        <v>6.05138345097672</v>
+        <v>1.596807052620163</v>
       </c>
       <c r="E98">
-        <v>10.42687084959485</v>
+        <v>4.511852976604668</v>
       </c>
       <c r="F98">
-        <v>2.129882287160397</v>
+        <v>14.21332472897679</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5.702600023630282</v>
+        <v>8.667693399377033</v>
       </c>
       <c r="C99">
-        <v>0.9756842774062588</v>
+        <v>2.757408639088602</v>
       </c>
       <c r="D99">
-        <v>6.03033493638382</v>
+        <v>1.585597273312993</v>
       </c>
       <c r="E99">
-        <v>10.38787726842581</v>
+        <v>4.481212497917257</v>
       </c>
       <c r="F99">
-        <v>2.103209490908271</v>
+        <v>14.20222889877512</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.662932731487081</v>
+        <v>8.62498070901996</v>
       </c>
       <c r="C100">
-        <v>0.9620498363926345</v>
+        <v>2.721513294870316</v>
       </c>
       <c r="D100">
-        <v>6.009315894342294</v>
+        <v>1.574417798881151</v>
       </c>
       <c r="E100">
-        <v>10.34886799764657</v>
+        <v>4.450640003056278</v>
       </c>
       <c r="F100">
-        <v>2.07674628080332</v>
+        <v>14.19109424279924</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5.623280160378216</v>
+        <v>8.58234191114863</v>
       </c>
       <c r="C101">
-        <v>0.9485694175376415</v>
+        <v>2.685901157413072</v>
       </c>
       <c r="D101">
-        <v>5.988328176859862</v>
+        <v>1.563272416733806</v>
       </c>
       <c r="E101">
-        <v>10.30984863931661</v>
+        <v>4.42014110269079</v>
       </c>
       <c r="F101">
-        <v>2.050493571798082</v>
+        <v>14.17992618650621</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5.583648171366293</v>
+        <v>8.539780268576875</v>
       </c>
       <c r="C102">
-        <v>0.9352426204557186</v>
+        <v>2.650574708170481</v>
       </c>
       <c r="D102">
-        <v>5.967373469817645</v>
+        <v>1.552164482420724</v>
       </c>
       <c r="E102">
-        <v>10.27082430847155</v>
+        <v>4.389720775692718</v>
       </c>
       <c r="F102">
-        <v>2.024452159262924</v>
+        <v>14.16872938739095</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5.544042466717014</v>
+        <v>8.497298627663188</v>
       </c>
       <c r="C103">
-        <v>0.9220689724153306</v>
+        <v>2.615536109763885</v>
       </c>
       <c r="D103">
-        <v>5.946453250306545</v>
+        <v>1.541096965560626</v>
       </c>
       <c r="E103">
-        <v>10.23179981915168</v>
+        <v>4.359383446628802</v>
       </c>
       <c r="F103">
-        <v>1.998622732292166</v>
+        <v>14.15750785479093</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.504468594590106</v>
+        <v>8.454899459211845</v>
       </c>
       <c r="C104">
-        <v>0.9090479266581998</v>
+        <v>2.580787244184582</v>
       </c>
       <c r="D104">
-        <v>5.925568888033339</v>
+        <v>1.53007249489727</v>
       </c>
       <c r="E104">
-        <v>10.19277954132002</v>
+        <v>4.329133053343102</v>
       </c>
       <c r="F104">
-        <v>1.973005884797337</v>
+        <v>14.14626504262546</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.464931943329391</v>
+        <v>8.412584966868055</v>
       </c>
       <c r="C105">
-        <v>0.8961788764771514</v>
+        <v>2.546329745195413</v>
       </c>
       <c r="D105">
-        <v>5.90472160302865</v>
+        <v>1.519093397047976</v>
       </c>
       <c r="E105">
-        <v>10.15376761830374</v>
+        <v>4.298973105575136</v>
       </c>
       <c r="F105">
-        <v>1.947602125113437</v>
+        <v>14.13500393110789</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5.425437766544039</v>
+        <v>8.370357050423916</v>
       </c>
       <c r="C106">
-        <v>0.8834611558024231</v>
+        <v>2.512165024125379</v>
       </c>
       <c r="D106">
-        <v>5.883912513876612</v>
+        <v>1.508161729521089</v>
       </c>
       <c r="E106">
-        <v>10.1147678657314</v>
+        <v>4.26890673113884</v>
       </c>
       <c r="F106">
-        <v>1.922411886572837</v>
+        <v>14.12372709833064</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5.385991149363532</v>
+        <v>8.32821741510709</v>
       </c>
       <c r="C107">
-        <v>0.8708940484264363</v>
+        <v>2.478294302300864</v>
       </c>
       <c r="D107">
-        <v>5.863142618003035</v>
+        <v>1.497279311642587</v>
       </c>
       <c r="E107">
-        <v>10.07578386478564</v>
+        <v>4.238936735377369</v>
       </c>
       <c r="F107">
-        <v>1.897435528114851</v>
+        <v>14.11243677817031</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5.346597061233685</v>
+        <v>8.286167547134628</v>
       </c>
       <c r="C108">
-        <v>0.8584767855025637</v>
+        <v>2.444718624687259</v>
       </c>
       <c r="D108">
-        <v>5.842412824672239</v>
+        <v>1.48644774865477</v>
       </c>
       <c r="E108">
-        <v>10.03681893101858</v>
+        <v>4.209065624354627</v>
       </c>
       <c r="F108">
-        <v>1.872673348590014</v>
+        <v>14.10113491114475</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5.307260309923751</v>
+        <v>8.244208762267878</v>
       </c>
       <c r="C109">
-        <v>0.8462085584540653</v>
+        <v>2.411438882584533</v>
       </c>
       <c r="D109">
-        <v>5.82172394689278</v>
+        <v>1.475668455502823</v>
       </c>
       <c r="E109">
-        <v>9.997876172850132</v>
+        <v>4.179295656736339</v>
       </c>
       <c r="F109">
-        <v>1.848125579985545</v>
+        <v>14.08982318542922</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5.267985581895726</v>
+        <v>8.202342237112429</v>
       </c>
       <c r="C110">
-        <v>0.8340885104252791</v>
+        <v>2.378455831478887</v>
       </c>
       <c r="D110">
-        <v>5.801076723463302</v>
+        <v>1.464942677902304</v>
       </c>
       <c r="E110">
-        <v>9.958958468850577</v>
+        <v>4.149628864422831</v>
       </c>
       <c r="F110">
-        <v>1.823792405188922</v>
+        <v>14.07850307152548</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5.228777429055324</v>
+        <v>8.160569014631367</v>
       </c>
       <c r="C111">
-        <v>0.8221157500931823</v>
+        <v>2.345770087687586</v>
       </c>
       <c r="D111">
-        <v>5.78047182153525</v>
+        <v>1.45427151031623</v>
       </c>
       <c r="E111">
-        <v>9.920068512710035</v>
+        <v>4.120067065247035</v>
       </c>
       <c r="F111">
-        <v>1.799673954638007</v>
+        <v>14.06717585373138</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.189640272615469</v>
+        <v>8.118890033063881</v>
       </c>
       <c r="C112">
-        <v>0.8102893471125195</v>
+        <v>2.313382163116679</v>
       </c>
       <c r="D112">
-        <v>5.759909848365661</v>
+        <v>1.443655912910139</v>
       </c>
       <c r="E112">
-        <v>9.881208820111535</v>
+        <v>4.090611915071437</v>
       </c>
       <c r="F112">
-        <v>1.775770312942449</v>
+        <v>14.05584265564973</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.150578408990092</v>
+        <v>8.07730613978819</v>
       </c>
       <c r="C113">
-        <v>0.7986083396579979</v>
+        <v>2.281292451506626</v>
       </c>
       <c r="D113">
-        <v>5.739391359854641</v>
+        <v>1.433096724748585</v>
       </c>
       <c r="E113">
-        <v>9.842381745266708</v>
+        <v>4.061264894311631</v>
       </c>
       <c r="F113">
-        <v>1.752081518972555</v>
+        <v>14.04450446244326</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.111596011465506</v>
+        <v>8.035818094982222</v>
       </c>
       <c r="C114">
-        <v>0.7870717361133249</v>
+        <v>2.249501254353141</v>
       </c>
       <c r="D114">
-        <v>5.718916848941809</v>
+        <v>1.42259467677105</v>
       </c>
       <c r="E114">
-        <v>9.803589500201692</v>
+        <v>4.032027351085287</v>
       </c>
       <c r="F114">
-        <v>1.728607570704063</v>
+        <v>14.03316213958524</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.072697127820923</v>
+        <v>7.994426595565425</v>
       </c>
       <c r="C115">
-        <v>0.7756785168729211</v>
+        <v>2.218008781657594</v>
       </c>
       <c r="D115">
-        <v>5.698486783672487</v>
+        <v>1.412150403119875</v>
       </c>
       <c r="E115">
-        <v>9.764834155593443</v>
+        <v>4.002900507498591</v>
       </c>
       <c r="F115">
-        <v>1.705348423838395</v>
+        <v>14.02181644707134</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.033885690737796</v>
+        <v>7.953132269239519</v>
       </c>
       <c r="C116">
-        <v>0.7644276372488675</v>
+        <v>2.186815158380348</v>
       </c>
       <c r="D116">
-        <v>5.678101578369314</v>
+        <v>1.401764449166752</v>
       </c>
       <c r="E116">
-        <v>9.726117665302203</v>
+        <v>3.973885472886348</v>
       </c>
       <c r="F116">
-        <v>1.682303995302503</v>
+        <v>14.01046805354932</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>4.995165514275632</v>
+        <v>7.911935691688893</v>
       </c>
       <c r="C117">
-        <v>0.7533180333689564</v>
+        <v>2.155920435685814</v>
       </c>
       <c r="D117">
-        <v>5.657761609039954</v>
+        <v>1.391437286194111</v>
       </c>
       <c r="E117">
-        <v>9.687441857295154</v>
+        <v>3.944983265027071</v>
       </c>
       <c r="F117">
-        <v>1.659474164760074</v>
+        <v>13.99911755258763</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>4.956540299065655</v>
+        <v>7.870837391375152</v>
       </c>
       <c r="C118">
-        <v>0.7423486168530611</v>
+        <v>2.125324587112967</v>
       </c>
       <c r="D118">
-        <v>5.637467233171021</v>
+        <v>1.381169309223225</v>
       </c>
       <c r="E118">
-        <v>9.648808457681683</v>
+        <v>3.916194807624374</v>
       </c>
       <c r="F118">
-        <v>1.636858776038473</v>
+        <v>13.98776546707643</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>4.918013635962369</v>
+        <v>7.82983785395603</v>
       </c>
       <c r="C119">
-        <v>0.7315182785915376</v>
+        <v>2.095027520719508</v>
       </c>
       <c r="D119">
-        <v>5.617218753753393</v>
+        <v>1.370960860889286</v>
       </c>
       <c r="E119">
-        <v>9.610219087129146</v>
+        <v>3.887520950495383</v>
       </c>
       <c r="F119">
-        <v>1.614457637561184</v>
+        <v>13.97641226526746</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4.879589006295998</v>
+        <v>7.788937530793169</v>
       </c>
       <c r="C120">
-        <v>0.7208259031163786</v>
+        <v>2.065029076144509</v>
       </c>
       <c r="D120">
-        <v>5.597016467163479</v>
+        <v>1.360812215519468</v>
       </c>
       <c r="E120">
-        <v>9.571675275342114</v>
+        <v>3.858962470699202</v>
       </c>
       <c r="F120">
-        <v>1.592270525017119</v>
+        <v>13.96505836049025</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>4.841269786530787</v>
+        <v>7.748136841278447</v>
       </c>
       <c r="C121">
-        <v>0.7102703508527901</v>
+        <v>2.035329031501293</v>
       </c>
       <c r="D121">
-        <v>5.576860631985459</v>
+        <v>1.350723608557842</v>
       </c>
       <c r="E121">
-        <v>9.533178465594267</v>
+        <v>3.830520081400456</v>
       </c>
       <c r="F121">
-        <v>1.57029718388767</v>
+        <v>13.95370412101797</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>4.803059250336066</v>
+        <v>7.707436176470994</v>
       </c>
       <c r="C122">
-        <v>0.6998504641316193</v>
+        <v>2.005927105313284</v>
       </c>
       <c r="D122">
-        <v>5.556751485994769</v>
+        <v>1.340695217799949</v>
       </c>
       <c r="E122">
-        <v>9.494730017543084</v>
+        <v>3.802194441620648</v>
       </c>
       <c r="F122">
-        <v>1.548537322351775</v>
+        <v>13.94234987525943</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>4.764960570618774</v>
+        <v>7.666835905180647</v>
       </c>
       <c r="C123">
-        <v>0.6895650867890923</v>
+        <v>1.976822958165066</v>
       </c>
       <c r="D123">
-        <v>5.536689248351752</v>
+        <v>1.330727187646914</v>
       </c>
       <c r="E123">
-        <v>9.456331223768911</v>
+        <v>3.773986157199628</v>
       </c>
       <c r="F123">
-        <v>1.526990621261452</v>
+        <v>13.93099591297747</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4.726976822114032</v>
+        <v>7.626336372752557</v>
       </c>
       <c r="C124">
-        <v>0.6794130419054826</v>
+        <v>1.948016196690798</v>
       </c>
       <c r="D124">
-        <v>5.516674115198704</v>
+        <v>1.320819618003589</v>
       </c>
       <c r="E124">
-        <v>9.417983310258652</v>
+        <v>3.745895790061626</v>
       </c>
       <c r="F124">
-        <v>1.505656737058573</v>
+        <v>13.91964249583166</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>4.689110984476471</v>
+        <v>7.585937905835356</v>
       </c>
       <c r="C125">
-        <v>0.6693931383569884</v>
+        <v>1.9195063736961</v>
       </c>
       <c r="D125">
-        <v>5.496706269952861</v>
+        <v>1.310972578622744</v>
       </c>
       <c r="E125">
-        <v>9.379687417641939</v>
+        <v>3.717923860710348</v>
       </c>
       <c r="F125">
-        <v>1.484535285890625</v>
+        <v>13.90828985518759</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>4.651365943011644</v>
+        <v>7.545640814697134</v>
       </c>
       <c r="C126">
-        <v>0.6595041866267299</v>
+        <v>1.89129299114661</v>
       </c>
       <c r="D126">
-        <v>5.476785875781262</v>
+        <v>1.301186105826167</v>
       </c>
       <c r="E126">
-        <v>9.34144465998042</v>
+        <v>3.690070851712008</v>
       </c>
       <c r="F126">
-        <v>1.463625857613839</v>
+        <v>13.89693820123274</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>4.613744493049476</v>
+        <v>7.505445397082593</v>
       </c>
       <c r="C127">
-        <v>0.6497449833054487</v>
+        <v>1.863375501029282</v>
       </c>
       <c r="D127">
-        <v>5.45691308545102</v>
+        <v>1.291460209940045</v>
       </c>
       <c r="E127">
-        <v>9.303256090702133</v>
+        <v>3.662337213939241</v>
       </c>
       <c r="F127">
-        <v>1.442928021676517</v>
+        <v>13.88558772060429</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>4.576249340445209</v>
+        <v>7.465351932407314</v>
       </c>
       <c r="C128">
-        <v>0.640114316030462</v>
+        <v>1.835753306300137</v>
       </c>
       <c r="D128">
-        <v>5.437088037547895</v>
+        <v>1.281794874356528</v>
       </c>
       <c r="E128">
-        <v>9.265122674599652</v>
+        <v>3.634723365847697</v>
       </c>
       <c r="F128">
-        <v>1.422441309261326</v>
+        <v>13.87423858447641</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>4.538883105232287</v>
+        <v>7.42536069867902</v>
       </c>
       <c r="C129">
-        <v>0.6306109716176295</v>
+        <v>1.808425762949129</v>
       </c>
       <c r="D129">
-        <v>5.417310855883209</v>
+        <v>1.272190061231138</v>
       </c>
       <c r="E129">
-        <v>9.227045378866524</v>
+        <v>3.607229699477352</v>
       </c>
       <c r="F129">
-        <v>1.40216522333568</v>
+        <v>13.86289094425014</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>4.501648323129468</v>
+        <v>7.385471954263123</v>
       </c>
       <c r="C130">
-        <v>0.6212337293713773</v>
+        <v>1.781392179453372</v>
       </c>
       <c r="D130">
-        <v>5.397581657994769</v>
+        <v>1.262645710070258</v>
       </c>
       <c r="E130">
-        <v>9.189025111560046</v>
+        <v>3.579856581025834</v>
       </c>
       <c r="F130">
-        <v>1.382099245835968</v>
+        <v>13.85154493949346</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>4.464547448273564</v>
+        <v>7.345685954675828</v>
       </c>
       <c r="C131">
-        <v>0.6119813638831754</v>
+        <v>1.754651820782283</v>
       </c>
       <c r="D131">
-        <v>5.377900545350364</v>
+        <v>1.253161742773235</v>
       </c>
       <c r="E131">
-        <v>9.151062706488627</v>
+        <v>3.55260435200106</v>
       </c>
       <c r="F131">
-        <v>1.362242826214198</v>
+        <v>13.84020069387294</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>4.427582855121924</v>
+        <v>7.306002948708561</v>
       </c>
       <c r="C132">
-        <v>0.602852649084283</v>
+        <v>1.728203905333941</v>
       </c>
       <c r="D132">
-        <v>5.358267614428845</v>
+        <v>1.243738062481743</v>
       </c>
       <c r="E132">
-        <v>9.113158999102454</v>
+        <v>3.525473335787234</v>
       </c>
       <c r="F132">
-        <v>1.342595385845707</v>
+        <v>13.82885832096095</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>4.390756840880628</v>
+        <v>7.266423171055225</v>
       </c>
       <c r="C133">
-        <v>0.5938463548630929</v>
+        <v>1.70204760909371</v>
       </c>
       <c r="D133">
-        <v>5.338682950936632</v>
+        <v>1.234374557303551</v>
       </c>
       <c r="E133">
-        <v>9.075314774568534</v>
+        <v>3.498463835886597</v>
       </c>
       <c r="F133">
-        <v>1.323156321708277</v>
+        <v>13.81751792256514</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>4.35407162757385</v>
+        <v>7.226946858266888</v>
       </c>
       <c r="C134">
-        <v>0.5849612486836407</v>
+        <v>1.676182067234588</v>
       </c>
       <c r="D134">
-        <v>5.319146631970135</v>
+        <v>1.22507110024131</v>
       </c>
       <c r="E134">
-        <v>9.037530767716735</v>
+        <v>3.471576134325569</v>
       </c>
       <c r="F134">
-        <v>1.303925003241055</v>
+        <v>13.80617959165971</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>4.317529363808084</v>
+        <v>7.187574235385219</v>
       </c>
       <c r="C135">
-        <v>0.576196099914896</v>
+        <v>1.650606367196227</v>
       </c>
       <c r="D135">
-        <v>5.299658728555452</v>
+        <v>1.215827551341316</v>
       </c>
       <c r="E135">
-        <v>8.999807701343418</v>
+        <v>3.444810506130108</v>
       </c>
       <c r="F135">
-        <v>1.28490077368673</v>
+        <v>13.79484341270722</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>4.281132127569522</v>
+        <v>7.148305525580029</v>
       </c>
       <c r="C136">
-        <v>0.5675496754849272</v>
+        <v>1.62531956082057</v>
       </c>
       <c r="D136">
-        <v>5.2802193033366</v>
+        <v>1.206643758577787</v>
       </c>
       <c r="E136">
-        <v>8.962146261268462</v>
+        <v>3.418167201439805</v>
       </c>
       <c r="F136">
-        <v>1.266082950174038</v>
+        <v>13.78350946254766</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>4.244881927010788</v>
+        <v>7.109140947173443</v>
       </c>
       <c r="C137">
-        <v>0.5590207413137335</v>
+        <v>1.600320656378999</v>
       </c>
       <c r="D137">
-        <v>5.260828414018118</v>
+        <v>1.19751955787886</v>
       </c>
       <c r="E137">
-        <v>8.924547099768143</v>
+        <v>3.391646461884385</v>
       </c>
       <c r="F137">
-        <v>1.247470824397203</v>
+        <v>13.77217781177808</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>4.208780703897269</v>
+        <v>7.070080714139064</v>
       </c>
       <c r="C138">
-        <v>0.5506080674569808</v>
+        <v>1.575608620248278</v>
       </c>
       <c r="D138">
-        <v>5.241486111486997</v>
+        <v>1.188454776153661</v>
       </c>
       <c r="E138">
-        <v>8.887010851434331</v>
+        <v>3.365248519184041</v>
       </c>
       <c r="F138">
-        <v>1.229063662905744</v>
+        <v>13.76084852426025</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>4.172830333845514</v>
+        <v>7.031125038451538</v>
       </c>
       <c r="C139">
-        <v>0.5423104231295429</v>
+        <v>1.551182381795044</v>
       </c>
       <c r="D139">
-        <v>5.22219244155177</v>
+        <v>1.179449232773492</v>
       </c>
       <c r="E139">
-        <v>8.849538123176302</v>
+        <v>3.338973582924503</v>
       </c>
       <c r="F139">
-        <v>1.210860707278422</v>
+        <v>13.74952165926006</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>4.137032629838393</v>
+        <v>6.99227412769473</v>
       </c>
       <c r="C140">
-        <v>0.5341265781657012</v>
+        <v>1.52704082889209</v>
       </c>
       <c r="D140">
-        <v>5.202947445426057</v>
+        <v>1.170502733151543</v>
       </c>
       <c r="E140">
-        <v>8.812129494833515</v>
+        <v>3.312821861072007</v>
       </c>
       <c r="F140">
-        <v>1.192861174097216</v>
+        <v>13.73819727028991</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>4.101389342561752</v>
+        <v>6.953528188710878</v>
       </c>
       <c r="C141">
-        <v>0.5260553073119949</v>
+        <v>1.503182811698226</v>
       </c>
       <c r="D141">
-        <v>5.18375115846855</v>
+        <v>1.161615081292888</v>
       </c>
       <c r="E141">
-        <v>8.774785532765875</v>
+        <v>3.28679354648773</v>
       </c>
       <c r="F141">
-        <v>1.17506425496591</v>
+        <v>13.72687540705551</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>4.065902163281289</v>
+        <v>6.914887425290849</v>
       </c>
       <c r="C142">
-        <v>0.5180953865110738</v>
+        <v>1.479607142109291</v>
       </c>
       <c r="D142">
-        <v>5.164603613100653</v>
+        <v>1.152786074576645</v>
       </c>
       <c r="E142">
-        <v>8.737506779373351</v>
+        <v>3.260888821024447</v>
       </c>
       <c r="F142">
-        <v>1.157469118229519</v>
+        <v>13.71555611473648</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>4.030572724894418</v>
+        <v>6.876352038812114</v>
       </c>
       <c r="C143">
-        <v>0.5102455941285536</v>
+        <v>1.456312594546188</v>
       </c>
       <c r="D143">
-        <v>5.145504836418355</v>
+        <v>1.144015495300094</v>
       </c>
       <c r="E143">
-        <v>8.700293752964512</v>
+        <v>3.235107859821907</v>
       </c>
       <c r="F143">
-        <v>1.140074907762446</v>
+        <v>13.70423943515167</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>3.995402603737795</v>
+        <v>6.837922230308824</v>
       </c>
       <c r="C144">
-        <v>0.5025047136755976</v>
+        <v>1.433297906382484</v>
       </c>
       <c r="D144">
-        <v>5.126454852397361</v>
+        <v>1.135303129483192</v>
       </c>
       <c r="E144">
-        <v>8.66314696323559</v>
+        <v>3.209450826622472</v>
       </c>
       <c r="F144">
-        <v>1.122880743233495</v>
+        <v>13.6929254064164</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>3.960393321538943</v>
+        <v>6.799598197417386</v>
       </c>
       <c r="C145">
-        <v>0.4948715317008623</v>
+        <v>1.41056177861032</v>
       </c>
       <c r="D145">
-        <v>5.107453681393002</v>
+        <v>1.12664875554018</v>
       </c>
       <c r="E145">
-        <v>8.626066898296763</v>
+        <v>3.183917878628836</v>
       </c>
       <c r="F145">
-        <v>1.105885721542089</v>
+        <v>13.6816140644453</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>3.92554634618304</v>
+        <v>6.761380137907388</v>
       </c>
       <c r="C146">
-        <v>0.4873448386326533</v>
+        <v>1.388102876435739</v>
       </c>
       <c r="D146">
-        <v>5.088501339986048</v>
+        <v>1.118052140921779</v>
       </c>
       <c r="E146">
-        <v>8.589054026253203</v>
+        <v>3.158509164527804</v>
       </c>
       <c r="F146">
-        <v>1.089088916309459</v>
+        <v>13.6703054418251</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3.890863094387229</v>
+        <v>6.723268247621779</v>
       </c>
       <c r="C147">
-        <v>0.4799234306880346</v>
+        <v>1.365919829862594</v>
       </c>
       <c r="D147">
-        <v>5.069597842254733</v>
+        <v>1.109513055134976</v>
       </c>
       <c r="E147">
-        <v>8.552108807468212</v>
+        <v>3.133224824621105</v>
       </c>
       <c r="F147">
-        <v>1.072489378609021</v>
+        <v>13.65899956852986</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3.856344931685266</v>
+        <v>6.685262721270757</v>
       </c>
       <c r="C148">
-        <v>0.4726061083442226</v>
+        <v>1.344011233967523</v>
       </c>
       <c r="D148">
-        <v>5.050743198768202</v>
+        <v>1.101031261382578</v>
       </c>
       <c r="E148">
-        <v>8.515231684343799</v>
+        <v>3.108064993753788</v>
       </c>
       <c r="F148">
-        <v>1.05608613660305</v>
+        <v>13.64769647392237</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>3.821993175517951</v>
+        <v>6.647363752966076</v>
       </c>
       <c r="C149">
-        <v>0.4653916769092187</v>
+        <v>1.322375649901107</v>
       </c>
       <c r="D149">
-        <v>5.031937417867852</v>
+        <v>1.092606516687992</v>
       </c>
       <c r="E149">
-        <v>8.478423083856649</v>
+        <v>3.083029797815574</v>
       </c>
       <c r="F149">
-        <v>1.039878196634736</v>
+        <v>13.63639618329741</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>3.787809094787536</v>
+        <v>6.609571535665948</v>
       </c>
       <c r="C150">
-        <v>0.4582789484736827</v>
+        <v>1.301011605208119</v>
       </c>
       <c r="D150">
-        <v>5.013180505119367</v>
+        <v>1.084238577243638</v>
       </c>
       <c r="E150">
-        <v>8.441683424399864</v>
+        <v>3.058119356941109</v>
       </c>
       <c r="F150">
-        <v>1.023864544120085</v>
+        <v>13.62509872109873</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>3.753793912953148</v>
+        <v>6.57188626196167</v>
       </c>
       <c r="C151">
-        <v>0.4512667402554748</v>
+        <v>1.279917594462075</v>
       </c>
       <c r="D151">
-        <v>4.994472463605178</v>
+        <v>1.075927195080836</v>
       </c>
       <c r="E151">
-        <v>8.405013110211401</v>
+        <v>3.033333785212077</v>
       </c>
       <c r="F151">
-        <v>1.008044142086912</v>
+        <v>13.61380411114467</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>3.719948807810516</v>
+        <v>6.534308123596523</v>
       </c>
       <c r="C152">
-        <v>0.4443538751045576</v>
+        <v>1.259092079794472</v>
       </c>
       <c r="D152">
-        <v>4.975813294457215</v>
+        <v>1.067672118760147</v>
       </c>
       <c r="E152">
-        <v>8.368412533500869</v>
+        <v>3.008673188455733</v>
       </c>
       <c r="F152">
-        <v>0.9924159330308715</v>
+        <v>13.60251237317419</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>3.686274913666479</v>
+        <v>6.496837311912732</v>
       </c>
       <c r="C153">
-        <v>0.4375391834038285</v>
+        <v>1.238533491991699</v>
       </c>
       <c r="D153">
-        <v>4.957202996234581</v>
+        <v>1.059473095200464</v>
       </c>
       <c r="E153">
-        <v>8.331882078202634</v>
+        <v>2.984137668086041</v>
       </c>
       <c r="F153">
-        <v>0.9769788396195611</v>
+        <v>13.59122352761397</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>3.65277332214753</v>
+        <v>6.459474017904634</v>
       </c>
       <c r="C154">
-        <v>0.4308215014140642</v>
+        <v>1.218240230451727</v>
       </c>
       <c r="D154">
-        <v>4.938641565923032</v>
+        <v>1.051329868341174</v>
       </c>
       <c r="E154">
-        <v>8.295422116580486</v>
+        <v>2.959727318570838</v>
       </c>
       <c r="F154">
-        <v>0.9617317635086388</v>
+        <v>13.57993759315639</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>3.619445083168659</v>
+        <v>6.422218431831677</v>
       </c>
       <c r="C155">
-        <v>0.4241996717100883</v>
+        <v>1.198210664221682</v>
       </c>
       <c r="D155">
-        <v>4.920128998346081</v>
+        <v>1.043242179452514</v>
       </c>
       <c r="E155">
-        <v>8.25903301102538</v>
+        <v>2.935442228249494</v>
       </c>
       <c r="F155">
-        <v>0.9466735869204348</v>
+        <v>13.56865458635524</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>3.586291206360985</v>
+        <v>6.385070744030692</v>
       </c>
       <c r="C156">
-        <v>0.417672544927986</v>
+        <v>1.178443133092781</v>
       </c>
       <c r="D156">
-        <v>4.901665286558647</v>
+        <v>1.035209769020649</v>
       </c>
       <c r="E156">
-        <v>8.222715117044144</v>
+        <v>2.911282480203481</v>
       </c>
       <c r="F156">
-        <v>0.9318031732298864</v>
+        <v>13.55737452363858</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>3.5533126610505</v>
+        <v>6.348031144173008</v>
       </c>
       <c r="C157">
-        <v>0.4112389783181502</v>
+        <v>1.158935947278268</v>
       </c>
       <c r="D157">
-        <v>4.883250422046015</v>
+        <v>1.027232374773827</v>
       </c>
       <c r="E157">
-        <v>8.186468779810527</v>
+        <v>2.88724815117574</v>
       </c>
       <c r="F157">
-        <v>0.9171193663470376</v>
+        <v>13.54609742012768</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>3.520510379844609</v>
+        <v>6.311099821837165</v>
       </c>
       <c r="C158">
-        <v>0.4048978361454083</v>
+        <v>1.13968738911009</v>
       </c>
       <c r="D158">
-        <v>4.864884394453332</v>
+        <v>1.019309732522874</v>
       </c>
       <c r="E158">
-        <v>8.150294336220954</v>
+        <v>2.86333931278658</v>
       </c>
       <c r="F158">
-        <v>0.9026209918882543</v>
+        <v>13.53482328983746</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>3.487885258445128</v>
+        <v>6.274276966371199</v>
       </c>
       <c r="C159">
-        <v>0.3986479910192268</v>
+        <v>1.120695713310107</v>
       </c>
       <c r="D159">
-        <v>4.846567192128372</v>
+        <v>1.011441577661562</v>
       </c>
       <c r="E159">
-        <v>8.114192117497771</v>
+        <v>2.839556030955583</v>
       </c>
       <c r="F159">
-        <v>0.8883068579304039</v>
+        <v>13.52355214628694</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>3.455438151077399</v>
+        <v>6.237562766779805</v>
       </c>
       <c r="C160">
-        <v>0.3924883228371761</v>
+        <v>1.101959147492069</v>
       </c>
       <c r="D160">
-        <v>4.8282988017874</v>
+        <v>1.003627643208077</v>
       </c>
       <c r="E160">
-        <v>8.078162445760405</v>
+        <v>2.815898365902665</v>
       </c>
       <c r="F160">
-        <v>0.8741757543860271</v>
+        <v>13.51228400205602</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>3.42316988252061</v>
+        <v>6.200957412045265</v>
       </c>
       <c r="C161">
-        <v>0.3864177190884326</v>
+        <v>1.083475893681052</v>
       </c>
       <c r="D161">
-        <v>4.810079208856311</v>
+        <v>0.9958676610386639</v>
       </c>
       <c r="E161">
-        <v>8.0422056362482</v>
+        <v>2.792366372896106</v>
       </c>
       <c r="F161">
-        <v>0.8602264541974634</v>
+        <v>13.50101886896764</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>3.391081242326901</v>
+        <v>6.164461090857285</v>
       </c>
       <c r="C162">
-        <v>0.3804350759132015</v>
+        <v>1.065244128081519</v>
       </c>
       <c r="D162">
-        <v>4.791908397452263</v>
+        <v>0.9881613624719026</v>
       </c>
       <c r="E162">
-        <v>8.00632199907646</v>
+        <v>2.768960101356893</v>
       </c>
       <c r="F162">
-        <v>0.8464577143328015</v>
+        <v>13.48975675851508</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>3.359172983018597</v>
+        <v>6.128073991862304</v>
       </c>
       <c r="C163">
-        <v>0.3745392972500189</v>
+        <v>1.047262002530378</v>
       </c>
       <c r="D163">
-        <v>4.773786350340818</v>
+        <v>0.9805084771703876</v>
       </c>
       <c r="E163">
-        <v>7.970511836707899</v>
+        <v>2.745679595608032</v>
       </c>
       <c r="F163">
-        <v>0.8328682748334064</v>
+        <v>13.47849768124572</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>3.327445823018829</v>
+        <v>6.091796303547324</v>
       </c>
       <c r="C164">
-        <v>0.3687292950534264</v>
+        <v>1.029527645240601</v>
       </c>
       <c r="D164">
-        <v>4.755713049236003</v>
+        <v>0.972908734157705</v>
       </c>
       <c r="E164">
-        <v>7.934775445878688</v>
+        <v>2.722524894773503</v>
       </c>
       <c r="F164">
-        <v>0.819456860238942</v>
+        <v>13.46724164728256</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>3.29590045389285</v>
+        <v>6.055628214246226</v>
       </c>
       <c r="C165">
-        <v>0.363003990268117</v>
+        <v>1.012039161050784</v>
       </c>
       <c r="D165">
-        <v>4.73768847453838</v>
+        <v>0.9653618618479093</v>
       </c>
       <c r="E165">
-        <v>7.899113118552732</v>
+        <v>2.699496032256874</v>
       </c>
       <c r="F165">
-        <v>0.8062221806599781</v>
+        <v>13.45598866645556</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>3.264537533863879</v>
+        <v>6.019569912274574</v>
       </c>
       <c r="C166">
-        <v>0.3573623120082821</v>
+        <v>0.9947946330346131</v>
       </c>
       <c r="D166">
-        <v>4.71971260569126</v>
+        <v>0.9578675875884861</v>
       </c>
       <c r="E166">
-        <v>7.863525140323091</v>
+        <v>2.676593036614497</v>
       </c>
       <c r="F166">
-        <v>0.7931629307335722</v>
+        <v>13.44473874768603</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>3.233357683501587</v>
+        <v>5.983621585714543</v>
       </c>
       <c r="C167">
-        <v>0.3518031977237475</v>
+        <v>0.9777921225911805</v>
       </c>
       <c r="D167">
-        <v>4.701785421029069</v>
+        <v>0.9504256384337253</v>
       </c>
       <c r="E167">
-        <v>7.828011791984659</v>
+        <v>2.653815930923731</v>
       </c>
       <c r="F167">
-        <v>0.7802777911114569</v>
+        <v>13.43349189978248</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>3.202361501227567</v>
+        <v>5.947783422660975</v>
       </c>
       <c r="C168">
-        <v>0.3463255941380272</v>
+        <v>0.9610296705441771</v>
       </c>
       <c r="D168">
-        <v>4.683906897840218</v>
+        <v>0.9430357409824935</v>
       </c>
       <c r="E168">
-        <v>7.792573350034792</v>
+        <v>2.63116473296177</v>
       </c>
       <c r="F168">
-        <v>0.7675654293582641</v>
+        <v>13.42224813110759</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3.171549553749077</v>
+        <v>5.912055611045615</v>
       </c>
       <c r="C169">
-        <v>0.3409284564405194</v>
+        <v>0.9445052983037087</v>
       </c>
       <c r="D169">
-        <v>4.66607701252589</v>
+        <v>0.9356976204881522</v>
       </c>
       <c r="E169">
-        <v>7.757210085462471</v>
+        <v>2.608639455406646</v>
       </c>
       <c r="F169">
-        <v>0.7550244993078299</v>
+        <v>13.41100744945074</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>3.140922375864902</v>
+        <v>5.876438338670946</v>
       </c>
       <c r="C170">
-        <v>0.3356107484254776</v>
+        <v>0.9282170079886813</v>
       </c>
       <c r="D170">
-        <v>4.648295740452572</v>
+        <v>0.9284110029499711</v>
       </c>
       <c r="E170">
-        <v>7.721922265250414</v>
+        <v>2.586240105491716</v>
       </c>
       <c r="F170">
-        <v>0.7426536422953364</v>
+        <v>13.39976986244135</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3.110480474970775</v>
+        <v>5.840931793281477</v>
       </c>
       <c r="C171">
-        <v>0.3303714433393002</v>
+        <v>0.9121627839035702</v>
       </c>
       <c r="D171">
-        <v>4.630563056177956</v>
+        <v>0.9211756139682014</v>
       </c>
       <c r="E171">
-        <v>7.68671015259629</v>
+        <v>2.563966685348486</v>
       </c>
       <c r="F171">
-        <v>0.730451488049524</v>
+        <v>13.38853537732546</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>3.080224332266907</v>
+        <v>5.805536162430005</v>
       </c>
       <c r="C172">
-        <v>0.3252095231482112</v>
+        <v>0.8963405931414042</v>
       </c>
       <c r="D172">
-        <v>4.612878933343615</v>
+        <v>0.9139911791732794</v>
       </c>
       <c r="E172">
-        <v>7.651574005793574</v>
+        <v>2.541819191792634</v>
       </c>
       <c r="F172">
-        <v>0.7184166542528482</v>
+        <v>13.37730400099372</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3.050154400463556</v>
+        <v>5.770251633600413</v>
       </c>
       <c r="C173">
-        <v>0.3201239786519919</v>
+        <v>0.8807483862648596</v>
       </c>
       <c r="D173">
-        <v>4.595243344756122</v>
+        <v>0.9068574234928312</v>
       </c>
       <c r="E173">
-        <v>7.61651407979213</v>
+        <v>2.519797616301199</v>
       </c>
       <c r="F173">
-        <v>0.7065477476581505</v>
+        <v>13.36607574014629</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3.020271103445522</v>
+        <v>5.735078394104579</v>
       </c>
       <c r="C174">
-        <v>0.3151138102032181</v>
+        <v>0.8653840986098056</v>
       </c>
       <c r="D174">
-        <v>4.57765626243598</v>
+        <v>0.8997740698939579</v>
       </c>
       <c r="E174">
-        <v>7.581530626162874</v>
+        <v>2.497901945187128</v>
       </c>
       <c r="F174">
-        <v>0.6948433648483541</v>
+        <v>13.35485060118104</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>2.990574841613612</v>
+        <v>5.700016631108155</v>
       </c>
       <c r="C175">
-        <v>0.3101780270788165</v>
+        <v>0.8502456506310607</v>
       </c>
       <c r="D175">
-        <v>4.560117657524278</v>
+        <v>0.8927408449062698</v>
       </c>
       <c r="E175">
-        <v>7.546623892150361</v>
+        <v>2.476132159344387</v>
       </c>
       <c r="F175">
-        <v>0.6833020921534201</v>
+        <v>13.3436285902314</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2.961065988904633</v>
+        <v>5.665066531627027</v>
       </c>
       <c r="C176">
-        <v>0.3053156475624605</v>
+        <v>0.8353309490881473</v>
       </c>
       <c r="D176">
-        <v>4.542627500535398</v>
+        <v>0.8857574740764517</v>
       </c>
       <c r="E176">
-        <v>7.511794122152124</v>
+        <v>2.454488234405828</v>
       </c>
       <c r="F176">
-        <v>0.6719225065174305</v>
+        <v>13.33240971328992</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>2.931744891275513</v>
+        <v>5.630228282436442</v>
       </c>
       <c r="C177">
-        <v>0.3005256995568148</v>
+        <v>0.8206378878921394</v>
       </c>
       <c r="D177">
-        <v>4.525185761261817</v>
+        <v>0.8788236833670516</v>
       </c>
       <c r="E177">
-        <v>7.477041557496208</v>
+        <v>2.432970140691503</v>
       </c>
       <c r="F177">
-        <v>0.6607031762198692</v>
+        <v>13.32119397606142</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>2.902611871832026</v>
+        <v>5.595502070210513</v>
       </c>
       <c r="C178">
-        <v>0.2958072200320809</v>
+        <v>0.8061643487758949</v>
       </c>
       <c r="D178">
-        <v>4.507792408650723</v>
+        <v>0.8719391963100654</v>
       </c>
       <c r="E178">
-        <v>7.442366435761889</v>
+        <v>2.411577843067277</v>
       </c>
       <c r="F178">
-        <v>0.6496426610356255</v>
+        <v>13.30998138407423</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>2.873667229333521</v>
+        <v>5.560888081425616</v>
       </c>
       <c r="C179">
-        <v>0.2911592550769088</v>
+        <v>0.7919082023702126</v>
       </c>
       <c r="D179">
-        <v>4.490447410929781</v>
+        <v>0.8651037370356808</v>
       </c>
       <c r="E179">
-        <v>7.407768992043152</v>
+        <v>2.390311301116391</v>
       </c>
       <c r="F179">
-        <v>0.638739512940958</v>
+        <v>13.29877194273236</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>2.844911237207671</v>
+        <v>5.526386502243607</v>
       </c>
       <c r="C180">
-        <v>0.2865808604436833</v>
+        <v>0.7778673089343587</v>
       </c>
       <c r="D180">
-        <v>4.473150735911969</v>
+        <v>0.8583170328226902</v>
       </c>
       <c r="E180">
-        <v>7.373249458645132</v>
+        <v>2.369170468972573</v>
       </c>
       <c r="F180">
-        <v>0.6279922767665329</v>
+        <v>13.28756565717334</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>2.816344143700503</v>
+        <v>5.491997518557858</v>
       </c>
       <c r="C181">
-        <v>0.2820711010379796</v>
+        <v>0.7640395192470979</v>
       </c>
       <c r="D181">
-        <v>4.455902350730905</v>
+        <v>0.8515788099879965</v>
       </c>
       <c r="E181">
-        <v>7.338808064605598</v>
+        <v>2.3481552953364</v>
       </c>
       <c r="F181">
-        <v>0.6173994905561697</v>
+        <v>13.2763625324417</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>2.787966176108054</v>
+        <v>5.457721316188199</v>
       </c>
       <c r="C182">
-        <v>0.2776290509449453</v>
+        <v>0.7504226754782055</v>
       </c>
       <c r="D182">
-        <v>4.438702221459633</v>
+        <v>0.8448887953630475</v>
       </c>
       <c r="E182">
-        <v>7.30444503678489</v>
+        <v>2.327265723494631</v>
       </c>
       <c r="F182">
-        <v>0.6069596861643914</v>
+        <v>13.2651625734345</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>2.759777537950296</v>
+        <v>5.423558080654656</v>
       </c>
       <c r="C183">
-        <v>0.2732537939255062</v>
+        <v>0.7370146120422607</v>
       </c>
       <c r="D183">
-        <v>4.42155031393199</v>
+        <v>0.8382467126112367</v>
       </c>
       <c r="E183">
-        <v>7.270160599517248</v>
+        <v>2.306501691224025</v>
       </c>
       <c r="F183">
-        <v>0.5966713898133372</v>
+        <v>13.25396578485499</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>2.731778407071403</v>
+        <v>5.389507996884753</v>
       </c>
       <c r="C184">
-        <v>0.26894442293548</v>
+        <v>0.7238131563365452</v>
       </c>
       <c r="D184">
-        <v>4.404446593409231</v>
+        <v>0.8316522893027667</v>
       </c>
       <c r="E184">
-        <v>7.235954974221419</v>
+        <v>2.285863130835765</v>
       </c>
       <c r="F184">
-        <v>0.5865331226141131</v>
+        <v>13.24277217132992</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>2.703968941876053</v>
+        <v>5.355571249731536</v>
       </c>
       <c r="C185">
-        <v>0.2647000401347013</v>
+        <v>0.7108161296983275</v>
       </c>
       <c r="D185">
-        <v>4.387391024505614</v>
+        <v>0.8251052530508554</v>
       </c>
       <c r="E185">
-        <v>7.201828380429099</v>
+        <v>2.265349969106307</v>
       </c>
       <c r="F185">
-        <v>0.5765434011048117</v>
+        <v>13.2315817373493</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>2.676349277749272</v>
+        <v>5.321748023746148</v>
       </c>
       <c r="C186">
-        <v>0.2605197573298027</v>
+        <v>0.6980213483558976</v>
       </c>
       <c r="D186">
-        <v>4.370383570884909</v>
+        <v>0.8186053315364854</v>
       </c>
       <c r="E186">
-        <v>7.167781035363358</v>
+        <v>2.244962127253788</v>
       </c>
       <c r="F186">
-        <v>0.5667007376902882</v>
+        <v>13.2203944872682</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>2.648919527249401</v>
+        <v>5.288038503074437</v>
       </c>
       <c r="C187">
-        <v>0.2564026955302092</v>
+        <v>0.685426624177749</v>
       </c>
       <c r="D187">
-        <v>4.353424196106389</v>
+        <v>0.812152252777487</v>
       </c>
       <c r="E187">
-        <v>7.133813153621531</v>
+        <v>2.224699520960139</v>
       </c>
       <c r="F187">
-        <v>0.5570036412798141</v>
+        <v>13.20921042536681</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>2.621679781069298</v>
+        <v>5.2544428711801</v>
       </c>
       <c r="C188">
-        <v>0.2523479849433035</v>
+        <v>0.6730297649423779</v>
       </c>
       <c r="D188">
-        <v>4.336512863035613</v>
+        <v>0.8057457438471085</v>
       </c>
       <c r="E188">
-        <v>7.099924948142307</v>
+        <v>2.204562060315606</v>
       </c>
       <c r="F188">
-        <v>0.5474506178176242</v>
+        <v>13.19802955581158</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2.594630109656481</v>
+        <v>5.220961311462913</v>
       </c>
       <c r="C189">
-        <v>0.248354765358326</v>
+        <v>0.6608285758746384</v>
       </c>
       <c r="D189">
-        <v>4.319649533932737</v>
+        <v>0.7993855342712114</v>
       </c>
       <c r="E189">
-        <v>7.066116629735978</v>
+        <v>2.184549649766009</v>
       </c>
       <c r="F189">
-        <v>0.538040170594184</v>
+        <v>13.18685188266509</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>2.567770561857835</v>
+        <v>5.187594006776091</v>
       </c>
       <c r="C190">
-        <v>0.2444221857444289</v>
+        <v>0.6488208607124862</v>
       </c>
       <c r="D190">
-        <v>4.30283417044522</v>
+        <v>0.7930713533949919</v>
       </c>
       <c r="E190">
-        <v>7.032388406877483</v>
+        <v>2.164662188104805</v>
       </c>
       <c r="F190">
-        <v>0.5287708009472886</v>
+        <v>13.1756774099288</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>2.54110116430873</v>
+        <v>5.154341139459226</v>
       </c>
       <c r="C191">
-        <v>0.2405494042323664</v>
+        <v>0.6370044220115496</v>
       </c>
       <c r="D191">
-        <v>4.286066733848791</v>
+        <v>0.7868029311255065</v>
       </c>
       <c r="E191">
-        <v>6.998740486504433</v>
+        <v>2.144899568518956</v>
       </c>
       <c r="F191">
-        <v>0.5196410088325037</v>
+        <v>13.16450614150049</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>2.514621924618791</v>
+        <v>5.121202891275286</v>
       </c>
       <c r="C192">
-        <v>0.2367355884440522</v>
+        <v>0.6253770607628063</v>
       </c>
       <c r="D192">
-        <v>4.269347184852336</v>
+        <v>0.7805799978515382</v>
       </c>
       <c r="E192">
-        <v>6.965173073612744</v>
+        <v>2.12526167849376</v>
       </c>
       <c r="F192">
-        <v>0.5106492930018085</v>
+        <v>13.15333808120281</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>2.488332829604008</v>
+        <v>5.088179443605585</v>
       </c>
       <c r="C193">
-        <v>0.232979915128223</v>
+        <v>0.613936578847216</v>
       </c>
       <c r="D193">
-        <v>4.252675483605319</v>
+        <v>0.7744022844788442</v>
       </c>
       <c r="E193">
-        <v>6.931686371112257</v>
+        <v>2.105748399774778</v>
       </c>
       <c r="F193">
-        <v>0.5017941517199944</v>
+        <v>13.14217323280335</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>2.462233845082085</v>
+        <v>5.055270977235162</v>
       </c>
       <c r="C194">
-        <v>0.2292815701293521</v>
+        <v>0.6026807802387514</v>
       </c>
       <c r="D194">
-        <v>4.236051589788954</v>
+        <v>0.7682695227935278</v>
       </c>
       <c r="E194">
-        <v>6.898280580463888</v>
+        <v>2.086359608376137</v>
       </c>
       <c r="F194">
-        <v>0.4930740834116006</v>
+        <v>13.13101159997626</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>2.436324917301814</v>
+        <v>5.022477672310774</v>
       </c>
       <c r="C195">
-        <v>0.225639748672408</v>
+        <v>0.591607470617188</v>
       </c>
       <c r="D195">
-        <v>4.219475462620652</v>
+        <v>0.76218144515427</v>
       </c>
       <c r="E195">
-        <v>6.864955901349502</v>
+        <v>2.067095174586265</v>
       </c>
       <c r="F195">
-        <v>0.4844875867061356</v>
+        <v>13.11985318634702</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>2.410605973196367</v>
+        <v>4.98979970839139</v>
       </c>
       <c r="C196">
-        <v>0.2220536550283194</v>
+        <v>0.5807144565995969</v>
       </c>
       <c r="D196">
-        <v>4.202947060829996</v>
+        <v>0.7561377846239598</v>
       </c>
       <c r="E196">
-        <v>6.831712531567041</v>
+        <v>2.04795496290005</v>
       </c>
       <c r="F196">
-        <v>0.4760331611305916</v>
+        <v>13.10869799548313</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>2.385076919810909</v>
+        <v>4.957237264437377</v>
       </c>
       <c r="C197">
-        <v>0.218522502472163</v>
+        <v>0.5699995488751685</v>
       </c>
       <c r="D197">
-        <v>4.18646634257652</v>
+        <v>0.7501382740611674</v>
       </c>
       <c r="E197">
-        <v>6.798550667545882</v>
+        <v>2.028938832054538</v>
       </c>
       <c r="F197">
-        <v>0.4677093078599305</v>
+        <v>13.09754603086325</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>2.359737644141506</v>
+        <v>4.924790518731487</v>
       </c>
       <c r="C198">
-        <v>0.215045513529619</v>
+        <v>0.5594605634499393</v>
       </c>
       <c r="D198">
-        <v>4.170033265665703</v>
+        <v>0.7441826477277992</v>
       </c>
       <c r="E198">
-        <v>6.765470504071146</v>
+        <v>2.010046634952289</v>
       </c>
       <c r="F198">
-        <v>0.459514529629465</v>
+        <v>13.08639729594943</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>2.334588015098218</v>
+        <v>4.892459648736892</v>
       </c>
       <c r="C199">
-        <v>0.2116219196679537</v>
+        <v>0.5490953207573623</v>
       </c>
       <c r="D199">
-        <v>4.153647787413693</v>
+        <v>0.7382706409843982</v>
       </c>
       <c r="E199">
-        <v>6.73247223420194</v>
+        <v>1.991278218633781</v>
       </c>
       <c r="F199">
-        <v>0.4514473313719607</v>
+        <v>13.07525179414979</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>2.309627882403355</v>
+        <v>4.860244831316063</v>
       </c>
       <c r="C200">
-        <v>0.2082509612459634</v>
+        <v>0.538901644667628</v>
       </c>
       <c r="D200">
-        <v>4.137309864661093</v>
+        <v>0.7324019897243655</v>
       </c>
       <c r="E200">
-        <v>6.699556049703829</v>
+        <v>1.972633424287781</v>
       </c>
       <c r="F200">
-        <v>0.4435062210911491</v>
+        <v>13.06410952883394</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>2.284857076286645</v>
+        <v>4.828146242539611</v>
       </c>
       <c r="C201">
-        <v>0.2049318877241026</v>
+        <v>0.5288773660149648</v>
       </c>
       <c r="D201">
-        <v>4.121019453731401</v>
+        <v>0.7265764306837652</v>
       </c>
       <c r="E201">
-        <v>6.666722140779305</v>
+        <v>1.954112087383133</v>
       </c>
       <c r="F201">
-        <v>0.4356897096441576</v>
+        <v>13.0529705032574</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>2.260275409074578</v>
+        <v>4.796164057662487</v>
       </c>
       <c r="C202">
-        <v>0.2016639573274212</v>
+        <v>0.5190203237987031</v>
       </c>
       <c r="D202">
-        <v>4.104776510606712</v>
+        <v>0.7207937014753245</v>
       </c>
       <c r="E202">
-        <v>6.633970695909913</v>
+        <v>1.935714037405067</v>
       </c>
       <c r="F202">
-        <v>0.4279963112979934</v>
+        <v>13.04183472070444</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>2.235882674719918</v>
+        <v>4.764298451010973</v>
       </c>
       <c r="C203">
-        <v>0.1984464369888138</v>
+        <v>0.5093283640099771</v>
       </c>
       <c r="D203">
-        <v>4.088580990798698</v>
+        <v>0.7150535406224324</v>
       </c>
       <c r="E203">
-        <v>6.601301902546306</v>
+        <v>1.917439097904678</v>
       </c>
       <c r="F203">
-        <v>0.4204245447372709</v>
+        <v>13.03070218442577</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>2.211678648746734</v>
+        <v>4.732549596183092</v>
       </c>
       <c r="C204">
-        <v>0.195278602726894</v>
+        <v>0.4997993384039779</v>
       </c>
       <c r="D204">
-        <v>4.07243284933737</v>
+        <v>0.709355685447324</v>
       </c>
       <c r="E204">
-        <v>6.568715946698244</v>
+        <v>1.899287086538038</v>
       </c>
       <c r="F204">
-        <v>0.4129729327234971</v>
+        <v>13.01957289763677</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>2.187663088446233</v>
+        <v>4.70091766583886</v>
       </c>
       <c r="C205">
-        <v>0.1921597392723402</v>
+        <v>0.4904311083400504</v>
       </c>
       <c r="D205">
-        <v>4.056332040823337</v>
+        <v>0.7036998736450866</v>
       </c>
       <c r="E205">
-        <v>6.536213013095121</v>
+        <v>1.88125781527316</v>
       </c>
       <c r="F205">
-        <v>0.4056400025520486</v>
+        <v>13.00844686345127</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>2.163835733737979</v>
+        <v>4.669402831651397</v>
       </c>
       <c r="C206">
-        <v>0.1890891401241636</v>
+        <v>0.4812215459012831</v>
       </c>
       <c r="D206">
-        <v>4.040278519472297</v>
+        <v>0.6980858478301549</v>
       </c>
       <c r="E206">
-        <v>6.503793284409627</v>
+        <v>1.863351089945639</v>
       </c>
       <c r="F206">
-        <v>0.3984242871961628</v>
+        <v>12.99732408497067</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>2.140196306762938</v>
+        <v>4.638005264303176</v>
       </c>
       <c r="C207">
-        <v>0.1860661066444748</v>
+        <v>0.4721685325023556</v>
       </c>
       <c r="D207">
-        <v>4.024272239060523</v>
+        <v>0.6925133495345487</v>
       </c>
       <c r="E207">
-        <v>6.471456942570858</v>
+        <v>1.845566710457899</v>
       </c>
       <c r="F207">
-        <v>0.3913243248538075</v>
+        <v>12.98620456532649</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>2.116744511783182</v>
+        <v>4.606725133547765</v>
       </c>
       <c r="C208">
-        <v>0.1830899496146892</v>
+        <v>0.463269957356033</v>
       </c>
       <c r="D208">
-        <v>4.008313152897574</v>
+        <v>0.686982121246686</v>
       </c>
       <c r="E208">
-        <v>6.439204168453698</v>
+        <v>1.827904470775666</v>
       </c>
       <c r="F208">
-        <v>0.384338659292639</v>
+        <v>12.97508830759898</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>2.093480036209246</v>
+        <v>4.575562608071094</v>
       </c>
       <c r="C209">
-        <v>0.1801599883177618</v>
+        <v>0.4545237216759298</v>
       </c>
       <c r="D209">
-        <v>3.992401213921363</v>
+        <v>0.6814919064398083</v>
       </c>
       <c r="E209">
-        <v>6.407035141585373</v>
+        <v>1.810364159219056</v>
       </c>
       <c r="F209">
-        <v>0.3774658411243391</v>
+        <v>12.96397531481166</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>2.070402550210593</v>
+        <v>4.544517855397296</v>
       </c>
       <c r="C210">
-        <v>0.1772755505084168</v>
+        <v>0.4459277396980021</v>
       </c>
       <c r="D210">
-        <v>3.97653637465056</v>
+        <v>0.676042449600405</v>
       </c>
       <c r="E210">
-        <v>6.374950039945314</v>
+        <v>1.792945557837144</v>
       </c>
       <c r="F210">
-        <v>0.370704427252231</v>
+        <v>12.95286558992359</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>2.047511706887208</v>
+        <v>4.513591041994719</v>
       </c>
       <c r="C211">
-        <v>0.1744359720411799</v>
+        <v>0.4374799370448619</v>
       </c>
       <c r="D211">
-        <v>3.960718587189594</v>
+        <v>0.6706334951272752</v>
       </c>
       <c r="E211">
-        <v>6.342949039426049</v>
+        <v>1.775648442792462</v>
       </c>
       <c r="F211">
-        <v>0.3640529810975547</v>
+        <v>12.94175913595347</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>2.024807142549847</v>
+        <v>4.482782333184577</v>
       </c>
       <c r="C212">
-        <v>0.1716405963977572</v>
+        <v>0.4291782489132995</v>
       </c>
       <c r="D212">
-        <v>3.944947803213949</v>
+        <v>0.665264783334818</v>
       </c>
       <c r="E212">
-        <v>6.311032316197092</v>
+        <v>1.758472584290094</v>
       </c>
       <c r="F212">
-        <v>0.3575100739924896</v>
+        <v>12.93065595586644</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>2.002288477036001</v>
+        <v>4.452091893081748</v>
       </c>
       <c r="C213">
-        <v>0.1688887767260218</v>
+        <v>0.421020624613023</v>
       </c>
       <c r="D213">
-        <v>3.929223974028111</v>
+        <v>0.6599360646217012</v>
       </c>
       <c r="E213">
-        <v>6.279200044707597</v>
+        <v>1.741417746924028</v>
       </c>
       <c r="F213">
-        <v>0.3510742845426378</v>
+        <v>12.91955605260134</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.979955313692271</v>
+        <v>4.421519884482977</v>
       </c>
       <c r="C214">
-        <v>0.1661798739230103</v>
+        <v>0.413005028463918</v>
       </c>
       <c r="D214">
-        <v>3.913547050529226</v>
+        <v>0.6546470865449127</v>
       </c>
       <c r="E214">
-        <v>6.247452398271311</v>
+        <v>1.72448368893375</v>
       </c>
       <c r="F214">
-        <v>0.3447441987330755</v>
+        <v>12.90845942903805</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.957807239488635</v>
+        <v>4.391066469014777</v>
       </c>
       <c r="C215">
-        <v>0.1635132571050618</v>
+        <v>0.4051294379426585</v>
       </c>
       <c r="D215">
-        <v>3.897916983207779</v>
+        <v>0.6493975976394168</v>
       </c>
       <c r="E215">
-        <v>6.215789547927853</v>
+        <v>1.70767016272625</v>
       </c>
       <c r="F215">
-        <v>0.3385184114242073</v>
+        <v>12.89736608808926</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.935843825446634</v>
+        <v>4.360731806963249</v>
       </c>
       <c r="C216">
-        <v>0.1608883026134113</v>
+        <v>0.3973918416949542</v>
       </c>
       <c r="D216">
-        <v>3.88233372215466</v>
+        <v>0.6441873474362563</v>
       </c>
       <c r="E216">
-        <v>6.184211664577194</v>
+        <v>1.690976914773134</v>
       </c>
       <c r="F216">
-        <v>0.332395525643629</v>
+        <v>12.88627603263126</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.914064626632041</v>
+        <v>4.33051605723822</v>
       </c>
       <c r="C217">
-        <v>0.158304395546428</v>
+        <v>0.3897902442677084</v>
       </c>
       <c r="D217">
-        <v>3.866797217090863</v>
+        <v>0.6390160864806529</v>
       </c>
       <c r="E217">
-        <v>6.152718917848684</v>
+        <v>1.674403685945721</v>
       </c>
       <c r="F217">
-        <v>0.3263741525748841</v>
+        <v>12.87518926552399</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.892469182351502</v>
+        <v>4.300419377313945</v>
       </c>
       <c r="C218">
-        <v>0.1557609290472133</v>
+        <v>0.3823226668537165</v>
       </c>
       <c r="D218">
-        <v>3.851307417344508</v>
+        <v>0.6338835663501097</v>
       </c>
       <c r="E218">
-        <v>6.121311476099055</v>
+        <v>1.657950210767821</v>
       </c>
       <c r="F218">
-        <v>0.3204529131368288</v>
+        <v>12.86410578959251</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.871057016355636</v>
+        <v>4.270441923307314</v>
       </c>
       <c r="C219">
-        <v>0.1532573040119316</v>
+        <v>0.3749871453148693</v>
       </c>
       <c r="D219">
-        <v>3.835864271836014</v>
+        <v>0.6287895346944278</v>
       </c>
       <c r="E219">
-        <v>6.089989506304764</v>
+        <v>1.641616217967091</v>
       </c>
       <c r="F219">
-        <v>0.3146304372197279</v>
+        <v>12.85302560766808</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.849827637009706</v>
+        <v>4.240583849838069</v>
       </c>
       <c r="C220">
-        <v>0.1507929290655585</v>
+        <v>0.3677817281082735</v>
       </c>
       <c r="D220">
-        <v>3.820467729119497</v>
+        <v>0.6237337467488234</v>
       </c>
       <c r="E220">
-        <v>6.058753174033249</v>
+        <v>1.625401430401552</v>
       </c>
       <c r="F220">
-        <v>0.3089053635634197</v>
+        <v>12.84194872256192</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.828780537476951</v>
+        <v>4.210845309953426</v>
       </c>
       <c r="C221">
-        <v>0.1483672202200278</v>
+        <v>0.3607044810568033</v>
       </c>
       <c r="D221">
-        <v>3.805117737373173</v>
+        <v>0.6187159567640925</v>
       </c>
       <c r="E221">
-        <v>6.027602644227048</v>
+        <v>1.609305565351089</v>
       </c>
       <c r="F221">
-        <v>0.3032763413981623</v>
+        <v>12.83087513707257</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.807915195930897</v>
+        <v>4.181226455158899</v>
       </c>
       <c r="C222">
-        <v>0.1459796017368067</v>
+        <v>0.3537534879259312</v>
       </c>
       <c r="D222">
-        <v>3.789814244393767</v>
+        <v>0.6137359196418751</v>
       </c>
       <c r="E222">
-        <v>5.996538080458668</v>
+        <v>1.593328333793484</v>
       </c>
       <c r="F222">
-        <v>0.2977420296399545</v>
+        <v>12.8198048539726</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.787231075629083</v>
+        <v>4.151727435392644</v>
       </c>
       <c r="C223">
-        <v>0.1436295052817337</v>
+        <v>0.3469268484180206</v>
       </c>
       <c r="D223">
-        <v>3.77455719757944</v>
+        <v>0.6087933912747729</v>
       </c>
       <c r="E223">
-        <v>5.965559645157603</v>
+        <v>1.577469440971083</v>
       </c>
       <c r="F223">
-        <v>0.2923010966677153</v>
+        <v>12.80873787603215</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.766727625169104</v>
+        <v>4.122348398935895</v>
       </c>
       <c r="C224">
-        <v>0.1413163700716853</v>
+        <v>0.3402226760540117</v>
       </c>
       <c r="D224">
-        <v>3.759346543981692</v>
+        <v>0.6038881285568938</v>
       </c>
       <c r="E224">
-        <v>5.934667499250157</v>
+        <v>1.56172858635488</v>
       </c>
       <c r="F224">
-        <v>0.2869522220021071</v>
+        <v>12.79767420601442</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.746404278795282</v>
+        <v>4.093089492291605</v>
       </c>
       <c r="C225">
-        <v>0.1390396426918947</v>
+        <v>0.3336391028867147</v>
       </c>
       <c r="D225">
-        <v>3.744182230272637</v>
+        <v>0.5990198893943937</v>
       </c>
       <c r="E225">
-        <v>5.903861802909231</v>
+        <v>1.546105463864824</v>
       </c>
       <c r="F225">
-        <v>0.281694095474667</v>
+        <v>12.78661384667037</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.726260456331898</v>
+        <v>4.063950860323502</v>
       </c>
       <c r="C226">
-        <v>0.1367987772035879</v>
+        <v>0.3271742799081011</v>
       </c>
       <c r="D226">
-        <v>3.729064202751083</v>
+        <v>0.5941884315049515</v>
       </c>
       <c r="E226">
-        <v>5.873142715045293</v>
+        <v>1.530599761213361</v>
       </c>
       <c r="F226">
-        <v>0.2765254169156277</v>
+        <v>12.77555680073035</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.706295563495796</v>
+        <v>4.034932646095274</v>
       </c>
       <c r="C227">
-        <v>0.1345932350459635</v>
+        <v>0.320826375068884</v>
       </c>
       <c r="D227">
-        <v>3.71399240734114</v>
+        <v>0.5893935145307326</v>
       </c>
       <c r="E227">
-        <v>5.842510393420119</v>
+        <v>1.515211160459481</v>
       </c>
       <c r="F227">
-        <v>0.2714448978470563</v>
+        <v>12.76450307091288</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.686508992154553</v>
+        <v>4.00603499083645</v>
       </c>
       <c r="C228">
-        <v>0.132422484903508</v>
+        <v>0.3145935711413957</v>
       </c>
       <c r="D228">
-        <v>3.698966789614258</v>
+        <v>0.5846348996476817</v>
       </c>
       <c r="E228">
-        <v>5.811964994480196</v>
+        <v>1.499939338019835</v>
       </c>
       <c r="F228">
-        <v>0.2664512606394236</v>
+        <v>12.75345265994296</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.666900120507774</v>
+        <v>3.977258033852316</v>
       </c>
       <c r="C229">
-        <v>0.1302860026255659</v>
+        <v>0.3084740703191424</v>
       </c>
       <c r="D229">
-        <v>3.683987294774574</v>
+        <v>0.5799123485685099</v>
       </c>
       <c r="E229">
-        <v>5.781506673466748</v>
+        <v>1.484783964796063</v>
       </c>
       <c r="F229">
-        <v>0.261543238122959</v>
+        <v>12.74240557053136</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.647468313072087</v>
+        <v>3.948601912613323</v>
       </c>
       <c r="C230">
-        <v>0.1281832709587772</v>
+        <v>0.302466094460038</v>
       </c>
       <c r="D230">
-        <v>3.669053867658608</v>
+        <v>0.5752256240233953</v>
       </c>
       <c r="E230">
-        <v>5.751135584711091</v>
+        <v>1.4697447056235</v>
       </c>
       <c r="F230">
-        <v>0.2567195752722847</v>
+        <v>12.73136180537668</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.628212921059056</v>
+        <v>3.920066762609172</v>
       </c>
       <c r="C231">
-        <v>0.1261137800184716</v>
+        <v>0.2965678831602965</v>
       </c>
       <c r="D231">
-        <v>3.654166452745458</v>
+        <v>0.5705744897677721</v>
       </c>
       <c r="E231">
-        <v>5.720851881285148</v>
+        <v>1.454821219787612</v>
       </c>
       <c r="F231">
-        <v>0.2519790283627607</v>
+        <v>12.72032136715837</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.609133282764015</v>
+        <v>3.891652717295316</v>
       </c>
       <c r="C232">
-        <v>0.1240770267859004</v>
+        <v>0.2907776916370519</v>
       </c>
       <c r="D232">
-        <v>3.639324994160359</v>
+        <v>0.5659587105901216</v>
       </c>
       <c r="E232">
-        <v>5.690655715091885</v>
+        <v>1.440013161090634</v>
       </c>
       <c r="F232">
-        <v>0.2473203645189473</v>
+        <v>12.70928425856745</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.590228723275446</v>
+        <v>3.863359908064996</v>
       </c>
       <c r="C233">
-        <v>0.1220725151542989</v>
+        <v>0.285093795153198</v>
       </c>
       <c r="D233">
-        <v>3.624529435671445</v>
+        <v>0.5613780521139362</v>
       </c>
       <c r="E233">
-        <v>5.660547236439775</v>
+        <v>1.425320177870936</v>
       </c>
       <c r="F233">
-        <v>0.2427423633693632</v>
+        <v>12.69825048228142</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.571498554995515</v>
+        <v>3.835188464259137</v>
       </c>
       <c r="C234">
-        <v>0.120099755725275</v>
+        <v>0.27951448910677</v>
       </c>
       <c r="D234">
-        <v>3.609779720674274</v>
+        <v>0.5568322808915633</v>
       </c>
       <c r="E234">
-        <v>5.630526594987624</v>
+        <v>1.410741912581491</v>
       </c>
       <c r="F234">
-        <v>0.2382438162135515</v>
+        <v>12.68722004097103</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.552942078059457</v>
+        <v>3.80713851306121</v>
       </c>
       <c r="C235">
-        <v>0.1181582659046478</v>
+        <v>0.2740380871881125</v>
       </c>
       <c r="D235">
-        <v>3.595075792234573</v>
+        <v>0.5523211650025938</v>
       </c>
       <c r="E235">
-        <v>5.60059393903093</v>
+        <v>1.396278002252611</v>
       </c>
       <c r="F235">
-        <v>0.2338235255213792</v>
+        <v>12.67619293729086</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.534558580190354</v>
+        <v>3.779210179352649</v>
       </c>
       <c r="C236">
-        <v>0.1162475698652237</v>
+        <v>0.2686629193286136</v>
       </c>
       <c r="D236">
-        <v>3.580417593061914</v>
+        <v>0.5478444733442527</v>
       </c>
       <c r="E236">
-        <v>5.570749415684275</v>
+        <v>1.381928078620325</v>
       </c>
       <c r="F236">
-        <v>0.2294803065384518</v>
+        <v>12.66516917390224</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.516347336717751</v>
+        <v>3.751403585877994</v>
       </c>
       <c r="C237">
-        <v>0.1143671983483081</v>
+        <v>0.26338733587984</v>
       </c>
       <c r="D237">
-        <v>3.56580506551847</v>
+        <v>0.5434019758716792</v>
       </c>
       <c r="E237">
-        <v>5.54099317066827</v>
+        <v>1.367691768025749</v>
       </c>
       <c r="F237">
-        <v>0.2252129864563854</v>
+        <v>12.65414875345687</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.498307611093547</v>
+        <v>3.723718853106007</v>
       </c>
       <c r="C238">
-        <v>0.1125166886306093</v>
+        <v>0.2582097075646078</v>
       </c>
       <c r="D238">
-        <v>3.551238151621426</v>
+        <v>0.5389934436048843</v>
       </c>
       <c r="E238">
-        <v>5.51132534853561</v>
+        <v>1.353568691141955</v>
       </c>
       <c r="F238">
-        <v>0.2210204039614311</v>
+        <v>12.64313167860161</v>
       </c>
     </row>
   </sheetData>
